--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T12:05:31+00:00</t>
+    <t>2025-10-15T14:23:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:23:03+00:00</t>
+    <t>2025-10-15T15:54:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:54:27+00:00</t>
+    <t>2025-10-15T16:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T16:03:41+00:00</t>
+    <t>2025-10-15T17:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T17:01:16+00:00</t>
+    <t>2025-10-15T17:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T17:40:06+00:00</t>
+    <t>2025-10-15T18:08:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:08:27+00:00</t>
+    <t>2025-10-15T18:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:32:50+00:00</t>
+    <t>2025-10-15T18:40:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:40:48+00:00</t>
+    <t>2025-10-16T02:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T02:41:49+00:00</t>
+    <t>2025-10-16T07:04:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -605,7 +605,7 @@
 </t>
   </si>
   <si>
-    <t>An identifier for this patient</t>
+    <t>Identifiers</t>
   </si>
   <si>
     <t>An identifier for this patient.</t>
@@ -1189,7 +1189,7 @@
 </t>
   </si>
   <si>
-    <t>A name associated with the patient</t>
+    <t>Patient name</t>
   </si>
   <si>
     <t>A name associated with the individual.</t>
@@ -1277,7 +1277,7 @@
 </t>
   </si>
   <si>
-    <t>Family name (often called 'Surname')</t>
+    <t>Family name</t>
   </si>
   <si>
     <t>The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
@@ -1302,7 +1302,7 @@
 middle name</t>
   </si>
   <si>
-    <t>Given names (not always 'first'). Includes middle names</t>
+    <t>Given names</t>
   </si>
   <si>
     <t>Given name.</t>
@@ -1384,7 +1384,7 @@
 </t>
   </si>
   <si>
-    <t>A contact detail for the individual</t>
+    <t>Contact details</t>
   </si>
   <si>
     <t>A contact detail (e.g. a telephone number or an email address) by which the individual may be contacted.</t>
@@ -1442,7 +1442,7 @@
 </t>
   </si>
   <si>
-    <t>The date of birth for the individual</t>
+    <t>Birth date</t>
   </si>
   <si>
     <t>The date of birth for the individual.</t>
@@ -1498,7 +1498,7 @@
 </t>
   </si>
   <si>
-    <t>An address for the individual</t>
+    <t>Addresses</t>
   </si>
   <si>
     <t>An address for the individual.</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:04:25+00:00</t>
+    <t>2025-10-16T07:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4385" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4385" uniqueCount="717">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:32:50+00:00</t>
+    <t>2025-10-16T10:13:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1302,7 +1302,10 @@
 middle name</t>
   </si>
   <si>
-    <t>Given names</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Given names (First name = [0], Middle name = [1], in order)</t>
   </si>
   <si>
     <t>Given name.</t>
@@ -10259,7 +10262,7 @@
         <v>90</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>81</v>
+        <v>415</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>91</v>
@@ -10274,13 +10277,13 @@
         <v>201</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10330,7 +10333,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10345,7 +10348,7 @@
         <v>102</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>82</v>
@@ -10354,7 +10357,7 @@
         <v>82</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
@@ -10362,10 +10365,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10391,10 +10394,10 @@
         <v>201</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10445,7 +10448,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10460,7 +10463,7 @@
         <v>102</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>82</v>
@@ -10469,7 +10472,7 @@
         <v>82</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10477,10 +10480,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10506,10 +10509,10 @@
         <v>201</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10560,7 +10563,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10575,7 +10578,7 @@
         <v>102</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>82</v>
@@ -10584,7 +10587,7 @@
         <v>82</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
@@ -10592,10 +10595,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10621,14 +10624,14 @@
         <v>329</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>82</v>
@@ -10677,7 +10680,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10692,7 +10695,7 @@
         <v>102</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>82</v>
@@ -10701,7 +10704,7 @@
         <v>82</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10709,10 +10712,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10735,19 +10738,19 @@
         <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -10796,7 +10799,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10811,16 +10814,16 @@
         <v>102</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10828,10 +10831,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10857,16 +10860,16 @@
         <v>110</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -10894,10 +10897,10 @@
         <v>218</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>82</v>
@@ -10915,7 +10918,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10930,16 +10933,16 @@
         <v>102</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -10947,10 +10950,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10973,19 +10976,19 @@
         <v>91</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -11034,7 +11037,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11049,27 +11052,27 @@
         <v>102</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11092,19 +11095,19 @@
         <v>91</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11153,7 +11156,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11168,7 +11171,7 @@
         <v>102</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>205</v>
@@ -11177,7 +11180,7 @@
         <v>82</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11185,10 +11188,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11211,19 +11214,19 @@
         <v>91</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11272,7 +11275,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11287,16 +11290,16 @@
         <v>102</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11304,10 +11307,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11419,10 +11422,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11534,13 +11537,13 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B77" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="B77" t="s" s="2">
-        <v>487</v>
-      </c>
       <c r="C77" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>82</v>
@@ -11562,13 +11565,13 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>136</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11651,13 +11654,13 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>82</v>
@@ -11679,13 +11682,13 @@
         <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11768,13 +11771,13 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>82</v>
@@ -11796,13 +11799,13 @@
         <v>82</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L79" t="s" s="2">
         <v>136</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11885,10 +11888,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11914,16 +11917,16 @@
         <v>110</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>82</v>
@@ -11936,7 +11939,7 @@
         <v>82</v>
       </c>
       <c r="T80" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="U80" t="s" s="2">
         <v>82</v>
@@ -11951,10 +11954,10 @@
         <v>218</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>82</v>
@@ -11972,7 +11975,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11996,7 +11999,7 @@
         <v>82</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>82</v>
@@ -12004,10 +12007,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12033,13 +12036,13 @@
         <v>110</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -12053,7 +12056,7 @@
         <v>82</v>
       </c>
       <c r="T81" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="U81" t="s" s="2">
         <v>82</v>
@@ -12068,10 +12071,10 @@
         <v>218</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>82</v>
@@ -12089,7 +12092,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12113,7 +12116,7 @@
         <v>82</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
@@ -12121,10 +12124,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12150,13 +12153,13 @@
         <v>201</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>401</v>
@@ -12172,7 +12175,7 @@
         <v>82</v>
       </c>
       <c r="T82" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="U82" t="s" s="2">
         <v>82</v>
@@ -12208,7 +12211,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12232,7 +12235,7 @@
         <v>82</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
@@ -12240,10 +12243,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12269,10 +12272,10 @@
         <v>201</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -12287,7 +12290,7 @@
         <v>82</v>
       </c>
       <c r="T83" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="U83" t="s" s="2">
         <v>82</v>
@@ -12323,7 +12326,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12338,7 +12341,7 @@
         <v>102</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>82</v>
@@ -12347,7 +12350,7 @@
         <v>82</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12355,14 +12358,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12384,10 +12387,10 @@
         <v>201</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12402,7 +12405,7 @@
         <v>82</v>
       </c>
       <c r="T84" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="U84" t="s" s="2">
         <v>82</v>
@@ -12438,7 +12441,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12453,7 +12456,7 @@
         <v>102</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>82</v>
@@ -12462,7 +12465,7 @@
         <v>82</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12470,14 +12473,14 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12499,13 +12502,13 @@
         <v>201</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12519,7 +12522,7 @@
         <v>82</v>
       </c>
       <c r="T85" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="U85" t="s" s="2">
         <v>82</v>
@@ -12555,7 +12558,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12570,7 +12573,7 @@
         <v>102</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>82</v>
@@ -12579,7 +12582,7 @@
         <v>82</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
@@ -12587,14 +12590,14 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12616,10 +12619,10 @@
         <v>201</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12670,7 +12673,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12685,7 +12688,7 @@
         <v>102</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>82</v>
@@ -12694,7 +12697,7 @@
         <v>82</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -12702,14 +12705,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12731,10 +12734,10 @@
         <v>201</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12749,7 +12752,7 @@
         <v>82</v>
       </c>
       <c r="T87" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="U87" t="s" s="2">
         <v>82</v>
@@ -12785,7 +12788,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12800,7 +12803,7 @@
         <v>102</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>82</v>
@@ -12809,7 +12812,7 @@
         <v>82</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -12817,10 +12820,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12846,13 +12849,13 @@
         <v>201</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -12902,7 +12905,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -12917,7 +12920,7 @@
         <v>102</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>82</v>
@@ -12926,7 +12929,7 @@
         <v>82</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>82</v>
@@ -12934,10 +12937,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12963,14 +12966,14 @@
         <v>329</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>82</v>
@@ -12983,7 +12986,7 @@
         <v>82</v>
       </c>
       <c r="T89" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="U89" t="s" s="2">
         <v>82</v>
@@ -13019,7 +13022,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -13034,7 +13037,7 @@
         <v>102</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>82</v>
@@ -13043,7 +13046,7 @@
         <v>82</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>82</v>
@@ -13051,10 +13054,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13080,14 +13083,14 @@
         <v>225</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>82</v>
@@ -13116,7 +13119,7 @@
       </c>
       <c r="Y90" s="2"/>
       <c r="Z90" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>82</v>
@@ -13134,7 +13137,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13149,16 +13152,16 @@
         <v>102</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>82</v>
@@ -13166,10 +13169,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13192,19 +13195,19 @@
         <v>82</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13253,7 +13256,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13268,7 +13271,7 @@
         <v>102</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>205</v>
@@ -13277,7 +13280,7 @@
         <v>82</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
@@ -13285,10 +13288,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13311,19 +13314,19 @@
         <v>82</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13372,7 +13375,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13387,7 +13390,7 @@
         <v>102</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>205</v>
@@ -13396,7 +13399,7 @@
         <v>82</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>82</v>
@@ -13404,10 +13407,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13430,19 +13433,19 @@
         <v>82</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>82</v>
@@ -13491,7 +13494,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13503,10 +13506,10 @@
         <v>82</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>205</v>
@@ -13523,10 +13526,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13638,10 +13641,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13755,14 +13758,14 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -13784,10 +13787,10 @@
         <v>135</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="N96" t="s" s="2">
         <v>182</v>
@@ -13842,7 +13845,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -13874,10 +13877,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13903,14 +13906,14 @@
         <v>225</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>82</v>
@@ -13939,7 +13942,7 @@
       </c>
       <c r="Y97" s="2"/>
       <c r="Z97" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>82</v>
@@ -13957,7 +13960,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -13972,7 +13975,7 @@
         <v>102</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>205</v>
@@ -13981,7 +13984,7 @@
         <v>82</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
@@ -13989,10 +13992,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14018,14 +14021,14 @@
         <v>377</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14074,7 +14077,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14098,7 +14101,7 @@
         <v>82</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
@@ -14106,10 +14109,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14132,19 +14135,19 @@
         <v>82</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
@@ -14193,7 +14196,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14208,7 +14211,7 @@
         <v>102</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>205</v>
@@ -14217,7 +14220,7 @@
         <v>82</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
@@ -14225,10 +14228,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14251,17 +14254,17 @@
         <v>82</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>82</v>
@@ -14310,7 +14313,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14325,7 +14328,7 @@
         <v>102</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>205</v>
@@ -14334,7 +14337,7 @@
         <v>82</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>82</v>
@@ -14342,10 +14345,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14371,14 +14374,14 @@
         <v>110</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>82</v>
@@ -14406,10 +14409,10 @@
         <v>218</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>82</v>
@@ -14427,7 +14430,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14442,7 +14445,7 @@
         <v>102</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>205</v>
@@ -14451,7 +14454,7 @@
         <v>82</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>82</v>
@@ -14459,10 +14462,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14488,14 +14491,14 @@
         <v>337</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
@@ -14544,7 +14547,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14553,13 +14556,13 @@
         <v>90</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>205</v>
@@ -14568,7 +14571,7 @@
         <v>82</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>82</v>
@@ -14576,10 +14579,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14605,10 +14608,10 @@
         <v>329</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14659,7 +14662,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14674,7 +14677,7 @@
         <v>102</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>205</v>
@@ -14691,10 +14694,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14717,19 +14720,19 @@
         <v>82</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>82</v>
@@ -14778,7 +14781,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -14793,10 +14796,10 @@
         <v>102</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>82</v>
@@ -14810,10 +14813,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14925,10 +14928,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15042,14 +15045,14 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -15071,10 +15074,10 @@
         <v>135</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="N107" t="s" s="2">
         <v>182</v>
@@ -15129,7 +15132,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15161,10 +15164,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15190,16 +15193,16 @@
         <v>225</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>82</v>
@@ -15248,7 +15251,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>90</v>
@@ -15263,16 +15266,16 @@
         <v>102</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>82</v>
@@ -15280,10 +15283,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15309,16 +15312,16 @@
         <v>290</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>82</v>
@@ -15367,7 +15370,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -15382,16 +15385,16 @@
         <v>102</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>82</v>
@@ -15399,14 +15402,14 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -15425,16 +15428,16 @@
         <v>82</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -15484,7 +15487,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15499,7 +15502,7 @@
         <v>102</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>205</v>
@@ -15508,7 +15511,7 @@
         <v>82</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
@@ -15516,10 +15519,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15545,16 +15548,16 @@
         <v>337</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>82</v>
@@ -15603,7 +15606,7 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -15618,10 +15621,10 @@
         <v>102</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>82</v>
@@ -15635,10 +15638,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15661,19 +15664,19 @@
         <v>91</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>82</v>
@@ -15722,7 +15725,7 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -15737,7 +15740,7 @@
         <v>102</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>205</v>
@@ -15754,10 +15757,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15869,10 +15872,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15986,14 +15989,14 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
@@ -16015,10 +16018,10 @@
         <v>135</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="N115" t="s" s="2">
         <v>182</v>
@@ -16073,7 +16076,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16105,10 +16108,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16131,16 +16134,16 @@
         <v>91</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
@@ -16190,7 +16193,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>90</v>
@@ -16214,7 +16217,7 @@
         <v>82</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>82</v>
@@ -16222,10 +16225,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16251,10 +16254,10 @@
         <v>110</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -16284,10 +16287,10 @@
         <v>218</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>82</v>
@@ -16305,7 +16308,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>90</v>
@@ -16320,7 +16323,7 @@
         <v>102</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>205</v>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$119</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4385" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4460" uniqueCount="724">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T10:13:43+00:00</t>
+    <t>2025-10-16T12:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1314,6 +1314,10 @@
     <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to paractical limitations.  This element is not called "first name" since given names do not always come first.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:$this}
+</t>
+  </si>
+  <si>
     <t>HumanName.given</t>
   </si>
   <si>
@@ -1321,6 +1325,24 @@
   </si>
   <si>
     <t>XPN.2 + XPN.3</t>
+  </si>
+  <si>
+    <t>Patient.name.given:FirstName</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Patient.name.given:MiddleName</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>Middle name</t>
   </si>
   <si>
     <t>Patient.name.prefix</t>
@@ -2564,7 +2586,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO117"/>
+  <dimension ref="A1:AO119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -10246,7 +10268,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
         <v>413</v>
       </c>
@@ -10321,19 +10343,17 @@
         <v>82</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="AC66" s="2"/>
       <c r="AD66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10348,7 +10368,7 @@
         <v>102</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>82</v>
@@ -10357,7 +10377,7 @@
         <v>82</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
@@ -10365,21 +10385,23 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="C67" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="D67" t="s" s="2">
-        <v>82</v>
+        <v>414</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>82</v>
@@ -10394,12 +10416,14 @@
         <v>201</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10448,7 +10472,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10463,7 +10487,7 @@
         <v>102</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>82</v>
@@ -10472,7 +10496,7 @@
         <v>82</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10480,21 +10504,23 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="C68" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="D68" t="s" s="2">
-        <v>82</v>
+        <v>414</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>82</v>
@@ -10509,12 +10535,14 @@
         <v>201</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>82</v>
@@ -10563,7 +10591,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10578,7 +10606,7 @@
         <v>102</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>82</v>
@@ -10587,7 +10615,7 @@
         <v>82</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
@@ -10595,10 +10623,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10609,7 +10637,7 @@
         <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>82</v>
@@ -10621,18 +10649,16 @@
         <v>91</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>329</v>
+        <v>201</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="N69" s="2"/>
-      <c r="O69" t="s" s="2">
-        <v>437</v>
-      </c>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>82</v>
       </c>
@@ -10680,13 +10706,13 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>82</v>
@@ -10695,7 +10721,7 @@
         <v>102</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>82</v>
@@ -10704,18 +10730,18 @@
         <v>82</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10729,7 +10755,7 @@
         <v>81</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>82</v>
@@ -10738,20 +10764,16 @@
         <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>442</v>
+        <v>201</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>446</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>82</v>
       </c>
@@ -10799,7 +10821,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10814,16 +10836,16 @@
         <v>102</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>448</v>
+        <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10831,10 +10853,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10857,19 +10879,17 @@
         <v>91</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>110</v>
+        <v>329</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>453</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -10894,13 +10914,13 @@
         <v>82</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>218</v>
+        <v>82</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>455</v>
+        <v>82</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>456</v>
+        <v>82</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>82</v>
@@ -10918,7 +10938,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10933,16 +10953,16 @@
         <v>102</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>458</v>
+        <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -10950,10 +10970,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10964,7 +10984,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>91</v>
@@ -10976,19 +10996,19 @@
         <v>91</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -11037,13 +11057,13 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>82</v>
@@ -11052,27 +11072,27 @@
         <v>102</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>469</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11089,25 +11109,25 @@
         <v>82</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J73" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>471</v>
+        <v>110</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11132,13 +11152,13 @@
         <v>82</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>82</v>
+        <v>462</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>82</v>
+        <v>463</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>82</v>
@@ -11156,7 +11176,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11171,16 +11191,16 @@
         <v>102</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>205</v>
+        <v>465</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11188,10 +11208,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11202,7 +11222,7 @@
         <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>91</v>
@@ -11214,19 +11234,19 @@
         <v>91</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11275,13 +11295,13 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>82</v>
@@ -11290,27 +11310,27 @@
         <v>102</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>82</v>
+        <v>476</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11327,22 +11347,26 @@
         <v>82</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>201</v>
+        <v>478</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>202</v>
+        <v>479</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
       </c>
@@ -11390,7 +11414,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>204</v>
+        <v>477</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11402,30 +11426,30 @@
         <v>82</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="AK75" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AL75" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AL75" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AM75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>82</v>
+        <v>484</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11445,19 +11469,23 @@
         <v>82</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>135</v>
+        <v>486</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>136</v>
+        <v>487</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
+        <v>488</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>490</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>82</v>
       </c>
@@ -11493,19 +11521,19 @@
         <v>82</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="AD76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>211</v>
+        <v>485</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11517,19 +11545,19 @@
         <v>82</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>82</v>
+        <v>491</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>82</v>
+        <v>492</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>82</v>
+        <v>493</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>82</v>
@@ -11537,14 +11565,12 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>490</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
         <v>82</v>
       </c>
@@ -11553,7 +11579,7 @@
         <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>82</v>
@@ -11565,13 +11591,13 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>491</v>
+        <v>201</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>136</v>
+        <v>202</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>492</v>
+        <v>203</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11622,22 +11648,22 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>82</v>
@@ -11654,14 +11680,12 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="C78" t="s" s="2">
-        <v>494</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
         <v>82</v>
       </c>
@@ -11673,7 +11697,7 @@
         <v>81</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>82</v>
@@ -11682,13 +11706,13 @@
         <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>495</v>
+        <v>135</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>496</v>
+        <v>136</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>497</v>
+        <v>137</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11727,16 +11751,16 @@
         <v>82</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>82</v>
+        <v>210</v>
       </c>
       <c r="AD78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>211</v>
@@ -11771,13 +11795,13 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>82</v>
@@ -11799,13 +11823,13 @@
         <v>82</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L79" t="s" s="2">
         <v>136</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11888,12 +11912,14 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="C80" s="2"/>
+        <v>495</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>501</v>
+      </c>
       <c r="D80" t="s" s="2">
         <v>82</v>
       </c>
@@ -11902,19 +11928,19 @@
         <v>80</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>110</v>
+        <v>502</v>
       </c>
       <c r="L80" t="s" s="2">
         <v>503</v>
@@ -11922,12 +11948,8 @@
       <c r="M80" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="N80" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>506</v>
-      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>82</v>
       </c>
@@ -11939,7 +11961,7 @@
         <v>82</v>
       </c>
       <c r="T80" t="s" s="2">
-        <v>507</v>
+        <v>82</v>
       </c>
       <c r="U80" t="s" s="2">
         <v>82</v>
@@ -11951,13 +11973,13 @@
         <v>82</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>218</v>
+        <v>82</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>508</v>
+        <v>82</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>509</v>
+        <v>82</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>82</v>
@@ -11975,22 +11997,22 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>510</v>
+        <v>211</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>395</v>
+        <v>82</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>82</v>
@@ -11999,7 +12021,7 @@
         <v>82</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>511</v>
+        <v>82</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>82</v>
@@ -12007,12 +12029,14 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="C81" s="2"/>
+        <v>495</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>506</v>
+      </c>
       <c r="D81" t="s" s="2">
         <v>82</v>
       </c>
@@ -12021,7 +12045,7 @@
         <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>82</v>
@@ -12030,20 +12054,18 @@
         <v>82</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>110</v>
+        <v>507</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>513</v>
+        <v>136</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>515</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -12056,7 +12078,7 @@
         <v>82</v>
       </c>
       <c r="T81" t="s" s="2">
-        <v>516</v>
+        <v>82</v>
       </c>
       <c r="U81" t="s" s="2">
         <v>82</v>
@@ -12068,13 +12090,13 @@
         <v>82</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>218</v>
+        <v>82</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>517</v>
+        <v>82</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>518</v>
+        <v>82</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>82</v>
@@ -12092,22 +12114,22 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>519</v>
+        <v>211</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>395</v>
+        <v>82</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>82</v>
@@ -12116,7 +12138,7 @@
         <v>82</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>520</v>
+        <v>82</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
@@ -12124,10 +12146,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12144,25 +12166,25 @@
         <v>82</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J82" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>401</v>
+        <v>513</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>82</v>
@@ -12175,7 +12197,7 @@
         <v>82</v>
       </c>
       <c r="T82" t="s" s="2">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="U82" t="s" s="2">
         <v>82</v>
@@ -12187,13 +12209,13 @@
         <v>82</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>82</v>
+        <v>515</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>82</v>
+        <v>516</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>82</v>
@@ -12211,7 +12233,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12226,7 +12248,7 @@
         <v>102</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>82</v>
@@ -12235,18 +12257,18 @@
         <v>82</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12257,10 +12279,10 @@
         <v>80</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>82</v>
@@ -12269,15 +12291,17 @@
         <v>91</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>521</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>522</v>
+      </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>82</v>
@@ -12290,7 +12314,7 @@
         <v>82</v>
       </c>
       <c r="T83" t="s" s="2">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="U83" t="s" s="2">
         <v>82</v>
@@ -12302,13 +12326,13 @@
         <v>82</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>82</v>
+        <v>524</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>82</v>
+        <v>525</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>82</v>
@@ -12326,13 +12350,13 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>82</v>
@@ -12341,7 +12365,7 @@
         <v>102</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>533</v>
+        <v>395</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>82</v>
@@ -12350,7 +12374,7 @@
         <v>82</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12358,14 +12382,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>536</v>
+        <v>82</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12387,13 +12411,17 @@
         <v>201</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
+        <v>530</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>82</v>
       </c>
@@ -12405,7 +12433,7 @@
         <v>82</v>
       </c>
       <c r="T84" t="s" s="2">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="U84" t="s" s="2">
         <v>82</v>
@@ -12441,7 +12469,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12456,7 +12484,7 @@
         <v>102</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>541</v>
+        <v>403</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>82</v>
@@ -12465,32 +12493,32 @@
         <v>82</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>544</v>
+        <v>82</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>82</v>
@@ -12502,14 +12530,12 @@
         <v>201</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>547</v>
-      </c>
+        <v>537</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>82</v>
@@ -12522,7 +12548,7 @@
         <v>82</v>
       </c>
       <c r="T85" t="s" s="2">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="U85" t="s" s="2">
         <v>82</v>
@@ -12558,13 +12584,13 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>82</v>
@@ -12573,7 +12599,7 @@
         <v>102</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>82</v>
@@ -12582,7 +12608,7 @@
         <v>82</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
@@ -12590,14 +12616,14 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12619,10 +12645,10 @@
         <v>201</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12637,7 +12663,7 @@
         <v>82</v>
       </c>
       <c r="T86" t="s" s="2">
-        <v>82</v>
+        <v>546</v>
       </c>
       <c r="U86" t="s" s="2">
         <v>82</v>
@@ -12673,7 +12699,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12688,7 +12714,7 @@
         <v>102</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>82</v>
@@ -12697,7 +12723,7 @@
         <v>82</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -12705,14 +12731,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12734,12 +12760,14 @@
         <v>201</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>553</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>554</v>
+      </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>82</v>
@@ -12752,7 +12780,7 @@
         <v>82</v>
       </c>
       <c r="T87" t="s" s="2">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="U87" t="s" s="2">
         <v>82</v>
@@ -12788,7 +12816,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12803,7 +12831,7 @@
         <v>102</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>82</v>
@@ -12812,7 +12840,7 @@
         <v>82</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -12820,14 +12848,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>82</v>
+        <v>560</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12849,14 +12877,12 @@
         <v>201</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>570</v>
-      </c>
+        <v>562</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -12905,7 +12931,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -12920,7 +12946,7 @@
         <v>102</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>82</v>
@@ -12929,7 +12955,7 @@
         <v>82</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>82</v>
@@ -12937,14 +12963,14 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>82</v>
+        <v>567</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -12963,18 +12989,16 @@
         <v>91</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>329</v>
+        <v>201</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="N89" s="2"/>
-      <c r="O89" t="s" s="2">
-        <v>577</v>
-      </c>
+      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>82</v>
       </c>
@@ -12986,7 +13010,7 @@
         <v>82</v>
       </c>
       <c r="T89" t="s" s="2">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="U89" t="s" s="2">
         <v>82</v>
@@ -13022,7 +13046,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -13037,7 +13061,7 @@
         <v>102</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>439</v>
+        <v>572</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>82</v>
@@ -13046,7 +13070,7 @@
         <v>82</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>82</v>
@@ -13054,10 +13078,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13077,21 +13101,21 @@
         <v>82</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>584</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>82</v>
       </c>
@@ -13115,11 +13139,13 @@
         <v>82</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="Y90" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z90" t="s" s="2">
-        <v>585</v>
+        <v>82</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>82</v>
@@ -13137,7 +13163,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13152,16 +13178,16 @@
         <v>102</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>587</v>
+        <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>82</v>
@@ -13169,10 +13195,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13192,22 +13218,20 @@
         <v>82</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>590</v>
+        <v>329</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>593</v>
-      </c>
+        <v>583</v>
+      </c>
+      <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13220,7 +13244,7 @@
         <v>82</v>
       </c>
       <c r="T91" t="s" s="2">
-        <v>82</v>
+        <v>585</v>
       </c>
       <c r="U91" t="s" s="2">
         <v>82</v>
@@ -13256,7 +13280,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13271,16 +13295,16 @@
         <v>102</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>595</v>
+        <v>446</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
@@ -13288,10 +13312,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13302,7 +13326,7 @@
         <v>80</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>82</v>
@@ -13314,19 +13338,17 @@
         <v>82</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>598</v>
+        <v>225</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>601</v>
-      </c>
+        <v>590</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13351,13 +13373,11 @@
         <v>82</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="Y92" s="2"/>
       <c r="Z92" t="s" s="2">
-        <v>82</v>
+        <v>592</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>82</v>
@@ -13375,13 +13395,13 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>82</v>
@@ -13390,16 +13410,16 @@
         <v>102</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>205</v>
+        <v>594</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>82</v>
@@ -13407,10 +13427,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13421,7 +13441,7 @@
         <v>80</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>82</v>
@@ -13433,19 +13453,19 @@
         <v>82</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>82</v>
@@ -13494,22 +13514,22 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>611</v>
+        <v>102</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>205</v>
@@ -13518,7 +13538,7 @@
         <v>82</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>82</v>
+        <v>603</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>82</v>
@@ -13526,10 +13546,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13540,7 +13560,7 @@
         <v>80</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>82</v>
@@ -13552,16 +13572,20 @@
         <v>82</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>201</v>
+        <v>605</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>202</v>
+        <v>606</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
+        <v>607</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>609</v>
+      </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
       </c>
@@ -13609,31 +13633,31 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>204</v>
+        <v>604</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="AK94" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AL94" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AL94" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AM94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>82</v>
+        <v>611</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>82</v>
@@ -13641,14 +13665,14 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13667,18 +13691,20 @@
         <v>82</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>135</v>
+        <v>613</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>208</v>
+        <v>614</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>209</v>
+        <v>615</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O95" s="2"/>
+        <v>616</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>617</v>
+      </c>
       <c r="P95" t="s" s="2">
         <v>82</v>
       </c>
@@ -13726,7 +13752,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>211</v>
+        <v>612</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13738,13 +13764,13 @@
         <v>82</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>141</v>
+        <v>618</v>
       </c>
       <c r="AK95" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AL95" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>82</v>
@@ -13758,46 +13784,42 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>616</v>
+        <v>82</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>135</v>
+        <v>201</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>617</v>
+        <v>202</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>82</v>
       </c>
@@ -13845,22 +13867,22 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>619</v>
+        <v>204</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>82</v>
@@ -13877,14 +13899,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13903,18 +13925,18 @@
         <v>82</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>621</v>
+        <v>208</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" t="s" s="2">
-        <v>623</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>82</v>
       </c>
@@ -13938,11 +13960,13 @@
         <v>82</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="Y97" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z97" t="s" s="2">
-        <v>624</v>
+        <v>82</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>82</v>
@@ -13960,7 +13984,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>620</v>
+        <v>211</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -13972,19 +13996,19 @@
         <v>82</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>625</v>
+        <v>205</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>626</v>
+        <v>82</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
@@ -13992,43 +14016,45 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>82</v>
+        <v>623</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>377</v>
+        <v>135</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="N98" s="2"/>
+        <v>625</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O98" t="s" s="2">
-        <v>630</v>
+        <v>183</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14077,31 +14103,31 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>382</v>
+        <v>133</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>631</v>
+        <v>82</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
@@ -14109,10 +14135,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14135,19 +14161,17 @@
         <v>82</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>442</v>
+        <v>225</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>635</v>
-      </c>
+        <v>629</v>
+      </c>
+      <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
-        <v>446</v>
+        <v>630</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
@@ -14172,13 +14196,11 @@
         <v>82</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="Y99" s="2"/>
       <c r="Z99" t="s" s="2">
-        <v>82</v>
+        <v>631</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>82</v>
@@ -14196,7 +14218,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14211,7 +14233,7 @@
         <v>102</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>447</v>
+        <v>632</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>205</v>
@@ -14220,7 +14242,7 @@
         <v>82</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
@@ -14228,10 +14250,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14254,17 +14276,17 @@
         <v>82</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>479</v>
+        <v>377</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>82</v>
@@ -14313,7 +14335,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14328,7 +14350,7 @@
         <v>102</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>484</v>
+        <v>382</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>205</v>
@@ -14337,7 +14359,7 @@
         <v>82</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>82</v>
@@ -14345,10 +14367,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14359,7 +14381,7 @@
         <v>80</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>82</v>
@@ -14371,17 +14393,19 @@
         <v>82</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>110</v>
+        <v>449</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>451</v>
+        <v>640</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="N101" s="2"/>
+        <v>641</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>642</v>
+      </c>
       <c r="O101" t="s" s="2">
-        <v>644</v>
+        <v>453</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>82</v>
@@ -14406,13 +14430,13 @@
         <v>82</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>218</v>
+        <v>82</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>455</v>
+        <v>82</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>456</v>
+        <v>82</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>82</v>
@@ -14430,13 +14454,13 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>82</v>
@@ -14445,7 +14469,7 @@
         <v>102</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>205</v>
@@ -14454,7 +14478,7 @@
         <v>82</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>82</v>
@@ -14462,10 +14486,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14488,17 +14512,17 @@
         <v>82</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>337</v>
+        <v>486</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
@@ -14547,7 +14571,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14556,13 +14580,13 @@
         <v>90</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>650</v>
+        <v>82</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>651</v>
+        <v>491</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>205</v>
@@ -14571,7 +14595,7 @@
         <v>82</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>82</v>
@@ -14579,10 +14603,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14605,16 +14629,18 @@
         <v>82</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>329</v>
+        <v>110</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>654</v>
+        <v>458</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="N103" s="2"/>
-      <c r="O103" s="2"/>
+      <c r="O103" t="s" s="2">
+        <v>651</v>
+      </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
       </c>
@@ -14638,13 +14664,13 @@
         <v>82</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>82</v>
+        <v>462</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>82</v>
+        <v>463</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>82</v>
@@ -14662,7 +14688,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14677,7 +14703,7 @@
         <v>102</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>656</v>
+        <v>464</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>205</v>
@@ -14686,7 +14712,7 @@
         <v>82</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>82</v>
+        <v>652</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>82</v>
@@ -14694,10 +14720,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14708,7 +14734,7 @@
         <v>80</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>82</v>
@@ -14720,19 +14746,17 @@
         <v>82</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>606</v>
+        <v>337</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>660</v>
-      </c>
+        <v>655</v>
+      </c>
+      <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>82</v>
@@ -14781,31 +14805,31 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI104" t="s" s="2">
         <v>657</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>663</v>
+        <v>205</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>82</v>
+        <v>659</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>82</v>
@@ -14813,10 +14837,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14839,13 +14863,13 @@
         <v>82</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>201</v>
+        <v>329</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>202</v>
+        <v>661</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>203</v>
+        <v>662</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -14896,7 +14920,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>204</v>
+        <v>660</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -14908,13 +14932,13 @@
         <v>82</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="AK105" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="AL105" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>82</v>
@@ -14928,14 +14952,14 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -14954,18 +14978,20 @@
         <v>82</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>135</v>
+        <v>613</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>208</v>
+        <v>665</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>209</v>
+        <v>666</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O106" s="2"/>
+        <v>667</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>668</v>
+      </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
       </c>
@@ -15013,7 +15039,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>211</v>
+        <v>664</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15025,13 +15051,13 @@
         <v>82</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>205</v>
+        <v>669</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>82</v>
+        <v>670</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>82</v>
@@ -15045,46 +15071,42 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>616</v>
+        <v>82</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>135</v>
+        <v>201</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>617</v>
+        <v>202</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>82</v>
       </c>
@@ -15132,22 +15154,22 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>619</v>
+        <v>204</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>82</v>
@@ -15164,21 +15186,21 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>82</v>
@@ -15190,20 +15212,18 @@
         <v>82</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>668</v>
+        <v>208</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>669</v>
+        <v>209</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>671</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>82</v>
       </c>
@@ -15227,13 +15247,13 @@
         <v>82</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="Z108" t="s" s="2">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>82</v>
@@ -15251,31 +15271,31 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>667</v>
+        <v>211</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>672</v>
+        <v>205</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>673</v>
+        <v>82</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>674</v>
+        <v>82</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>82</v>
@@ -15283,45 +15303,45 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>82</v>
+        <v>623</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>290</v>
+        <v>135</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>676</v>
+        <v>624</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>677</v>
+        <v>625</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>678</v>
+        <v>182</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>679</v>
+        <v>183</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>82</v>
@@ -15370,31 +15390,31 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>675</v>
+        <v>626</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>680</v>
+        <v>133</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>681</v>
+        <v>82</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>682</v>
+        <v>82</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>82</v>
@@ -15402,21 +15422,21 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>684</v>
+        <v>82</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>82</v>
@@ -15428,18 +15448,20 @@
         <v>82</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>685</v>
+        <v>225</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>688</v>
-      </c>
-      <c r="O110" s="2"/>
+        <v>677</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>678</v>
+      </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
       </c>
@@ -15463,13 +15485,13 @@
         <v>82</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>82</v>
@@ -15487,13 +15509,13 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>82</v>
@@ -15502,16 +15524,16 @@
         <v>102</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>205</v>
+        <v>680</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
@@ -15519,10 +15541,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15542,22 +15564,22 @@
         <v>82</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>337</v>
+        <v>290</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>82</v>
@@ -15606,7 +15628,7 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -15621,16 +15643,16 @@
         <v>102</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>651</v>
+        <v>687</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>82</v>
+        <v>689</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>82</v>
@@ -15638,14 +15660,14 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>82</v>
+        <v>691</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -15658,26 +15680,24 @@
         <v>82</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>606</v>
+        <v>692</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>700</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>701</v>
-      </c>
+        <v>695</v>
+      </c>
+      <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
         <v>82</v>
       </c>
@@ -15725,7 +15745,7 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -15740,7 +15760,7 @@
         <v>102</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>205</v>
@@ -15749,7 +15769,7 @@
         <v>82</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>82</v>
+        <v>697</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>82</v>
@@ -15757,10 +15777,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15780,19 +15800,23 @@
         <v>82</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>201</v>
+        <v>337</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>202</v>
+        <v>699</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N113" s="2"/>
-      <c r="O113" s="2"/>
+        <v>700</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="O113" t="s" s="2">
+        <v>702</v>
+      </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
       </c>
@@ -15840,7 +15864,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>204</v>
+        <v>698</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -15852,13 +15876,13 @@
         <v>82</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>205</v>
+        <v>658</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>82</v>
+        <v>703</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>82</v>
@@ -15879,7 +15903,7 @@
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
@@ -15892,24 +15916,26 @@
         <v>82</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>135</v>
+        <v>613</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>208</v>
+        <v>705</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>209</v>
+        <v>706</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O114" s="2"/>
+        <v>707</v>
+      </c>
+      <c r="O114" t="s" s="2">
+        <v>708</v>
+      </c>
       <c r="P114" t="s" s="2">
         <v>82</v>
       </c>
@@ -15957,7 +15983,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>211</v>
+        <v>704</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -15969,13 +15995,13 @@
         <v>82</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK114" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="AL114" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>82</v>
@@ -15989,46 +16015,42 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>616</v>
+        <v>82</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>135</v>
+        <v>201</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>617</v>
+        <v>202</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
         <v>82</v>
       </c>
@@ -16076,22 +16098,22 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>619</v>
+        <v>204</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>82</v>
@@ -16108,21 +16130,21 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>82</v>
@@ -16131,19 +16153,19 @@
         <v>82</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>707</v>
+        <v>135</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>708</v>
+        <v>208</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>709</v>
+        <v>209</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>710</v>
+        <v>182</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
@@ -16193,31 +16215,31 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>706</v>
+        <v>211</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI116" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>711</v>
+        <v>82</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>82</v>
@@ -16232,35 +16254,39 @@
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>82</v>
+        <v>623</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J117" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>713</v>
+        <v>624</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="N117" s="2"/>
-      <c r="O117" s="2"/>
+        <v>625</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O117" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
       </c>
@@ -16284,62 +16310,294 @@
         <v>82</v>
       </c>
       <c r="X117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO117" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="118" hidden="true">
+      <c r="A118" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="O118" s="2"/>
+      <c r="P118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q118" s="2"/>
+      <c r="R118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN118" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="AO118" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="119" hidden="true">
+      <c r="A119" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="F119" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="N119" s="2"/>
+      <c r="O119" s="2"/>
+      <c r="P119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q119" s="2"/>
+      <c r="R119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X119" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="Y117" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="Z117" t="s" s="2">
-        <v>715</v>
-      </c>
-      <c r="AA117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF117" t="s" s="2">
-        <v>712</v>
-      </c>
-      <c r="AG117" t="s" s="2">
+      <c r="Y119" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="AG119" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AH117" t="s" s="2">
+      <c r="AH119" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AI117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ117" t="s" s="2">
+      <c r="AI119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AK117" t="s" s="2">
-        <v>716</v>
-      </c>
-      <c r="AL117" t="s" s="2">
+      <c r="AK119" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="AL119" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AM117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO117" t="s" s="2">
+      <c r="AM119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO119" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO117">
+  <autoFilter ref="A1:AO119">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -16349,7 +16607,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI116">
+  <conditionalFormatting sqref="A2:AI118">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T12:46:03+00:00</t>
+    <t>2025-10-18T06:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T02:11:18+00:00</t>
+    <t>2025-10-22T06:37:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T06:37:55+00:00</t>
+    <t>2025-10-22T07:39:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T07:39:41+00:00</t>
+    <t>2025-10-24T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T06:46:00+00:00</t>
+    <t>2025-10-24T16:06:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T16:06:58+00:00</t>
+    <t>2025-10-25T04:52:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-25T04:52:41+00:00</t>
+    <t>2025-10-26T07:34:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-26T07:34:36+00:00</t>
+    <t>2025-10-27T01:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:54:31+00:00</t>
+    <t>2025-10-27T01:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$132</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4460" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4944" uniqueCount="741">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Road Safety Patient</t>
+    <t>RS Patient</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:56:04+00:00</t>
+    <t>2025-10-28T15:04:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Patient demographics and identifiers for road safety reporting; reuse PH-Core address extensions for barangay/city/province/region.</t>
+    <t>Patient demographics and identifiers for RS reporting; reuse PH-Core address extensions for barangay/city/province/region.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -1153,6 +1153,61 @@
   </si>
   <si>
     <t>Patient.identifier:PHCorePddRegistration.assigner</t>
+  </si>
+  <si>
+    <t>Patient.identifier:patientHospitalID</t>
+  </si>
+  <si>
+    <t>patientHospitalID</t>
+  </si>
+  <si>
+    <t>Hospital Patient ID No.</t>
+  </si>
+  <si>
+    <t>Write the hospital-based issued I.D. or number to uniquely identify the patient.</t>
+  </si>
+  <si>
+    <t>Patient.identifier:patientHospitalID.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier:patientHospitalID.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier:patientHospitalID.use</t>
+  </si>
+  <si>
+    <t>Patient.identifier:patientHospitalID.type</t>
+  </si>
+  <si>
+    <t>Patient.identifier:patientHospitalID.type.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier:patientHospitalID.type.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier:patientHospitalID.type.coding</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://snomed.info/sct"/&gt;
+  &lt;code value="184107009"/&gt;
+  &lt;display value="Patient hospital visit number (observable entity)"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>Patient.identifier:patientHospitalID.type.text</t>
+  </si>
+  <si>
+    <t>Patient.identifier:patientHospitalID.system</t>
+  </si>
+  <si>
+    <t>Patient.identifier:patientHospitalID.value</t>
+  </si>
+  <si>
+    <t>Patient.identifier:patientHospitalID.period</t>
+  </si>
+  <si>
+    <t>Patient.identifier:patientHospitalID.assigner</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -2586,7 +2641,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO119"/>
+  <dimension ref="A1:AO132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -9446,9 +9501,11 @@
         <v>368</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="D59" t="s" s="2">
         <v>82</v>
       </c>
@@ -9463,32 +9520,28 @@
         <v>82</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>290</v>
+        <v>186</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N59" t="s" s="2">
         <v>371</v>
       </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>372</v>
+        <v>189</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q59" t="s" s="2">
-        <v>373</v>
-      </c>
+      <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
         <v>82</v>
       </c>
@@ -9532,13 +9585,13 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>368</v>
+        <v>185</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>82</v>
@@ -9547,27 +9600,27 @@
         <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>374</v>
+        <v>192</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>375</v>
+        <v>194</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>82</v>
+        <v>195</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>376</v>
+        <v>200</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9575,35 +9628,31 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G60" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G60" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H60" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>377</v>
+        <v>201</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>378</v>
+        <v>202</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>82</v>
       </c>
@@ -9651,31 +9700,31 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>376</v>
+        <v>204</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>382</v>
+        <v>205</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>383</v>
+        <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>384</v>
+        <v>82</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9683,21 +9732,21 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>385</v>
+        <v>207</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>82</v>
@@ -9709,15 +9758,17 @@
         <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>201</v>
+        <v>135</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9754,31 +9805,31 @@
         <v>82</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>82</v>
+        <v>210</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>205</v>
@@ -9798,44 +9849,46 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>386</v>
+        <v>213</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
       </c>
@@ -9859,46 +9912,46 @@
         <v>82</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>82</v>
+        <v>219</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>82</v>
+        <v>220</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>82</v>
@@ -9907,7 +9960,7 @@
         <v>82</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9915,10 +9968,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>387</v>
+        <v>224</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9935,25 +9988,25 @@
         <v>82</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>110</v>
+        <v>225</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>388</v>
+        <v>226</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>389</v>
+        <v>227</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>390</v>
+        <v>228</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>391</v>
+        <v>229</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9978,13 +10031,13 @@
         <v>82</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>392</v>
+        <v>231</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>393</v>
+        <v>232</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>82</v>
@@ -10002,7 +10055,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>394</v>
+        <v>233</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -10017,7 +10070,7 @@
         <v>102</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>395</v>
+        <v>222</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>82</v>
@@ -10026,7 +10079,7 @@
         <v>82</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>396</v>
+        <v>234</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -10034,10 +10087,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>397</v>
+        <v>236</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10057,23 +10110,19 @@
         <v>82</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>201</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>398</v>
+        <v>202</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>82</v>
       </c>
@@ -10121,7 +10170,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>402</v>
+        <v>204</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -10133,10 +10182,10 @@
         <v>82</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>403</v>
+        <v>205</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>82</v>
@@ -10145,50 +10194,50 @@
         <v>82</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>404</v>
+        <v>82</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>405</v>
+        <v>377</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>405</v>
+        <v>238</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>406</v>
+        <v>179</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>201</v>
+        <v>135</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>407</v>
+        <v>208</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>408</v>
+        <v>209</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>409</v>
+        <v>182</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -10226,34 +10275,34 @@
         <v>82</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>82</v>
+        <v>210</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>410</v>
+        <v>211</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>411</v>
+        <v>205</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>82</v>
@@ -10262,7 +10311,7 @@
         <v>82</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>412</v>
+        <v>82</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -10270,24 +10319,24 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>413</v>
+        <v>240</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>414</v>
+        <v>82</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>415</v>
+        <v>81</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>82</v>
@@ -10296,24 +10345,26 @@
         <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>416</v>
+        <v>242</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>417</v>
+        <v>243</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>82</v>
+        <v>379</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>82</v>
@@ -10343,17 +10394,19 @@
         <v>82</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AC66" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>420</v>
+        <v>246</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10368,7 +10421,7 @@
         <v>102</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>421</v>
+        <v>247</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>82</v>
@@ -10377,7 +10430,7 @@
         <v>82</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>422</v>
+        <v>248</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
@@ -10385,16 +10438,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>423</v>
+        <v>380</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>414</v>
+        <v>82</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -10416,15 +10467,17 @@
         <v>201</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>425</v>
+        <v>300</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>417</v>
+        <v>301</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="O67" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
       </c>
@@ -10472,13 +10525,13 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>420</v>
+        <v>304</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>82</v>
@@ -10487,7 +10540,7 @@
         <v>102</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>421</v>
+        <v>305</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>82</v>
@@ -10496,7 +10549,7 @@
         <v>82</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>422</v>
+        <v>306</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10504,16 +10557,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>426</v>
+        <v>381</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>414</v>
+        <v>82</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10532,18 +10583,20 @@
         <v>91</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>201</v>
+        <v>104</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>428</v>
+        <v>309</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>417</v>
+        <v>310</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="O68" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>82</v>
       </c>
@@ -10555,7 +10608,7 @@
         <v>82</v>
       </c>
       <c r="T68" t="s" s="2">
-        <v>82</v>
+        <v>314</v>
       </c>
       <c r="U68" t="s" s="2">
         <v>82</v>
@@ -10591,13 +10644,13 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>420</v>
+        <v>315</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>82</v>
@@ -10606,7 +10659,7 @@
         <v>102</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>421</v>
+        <v>316</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>82</v>
@@ -10615,7 +10668,7 @@
         <v>82</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>422</v>
+        <v>317</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
@@ -10623,10 +10676,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>429</v>
+        <v>382</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>429</v>
+        <v>319</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10637,7 +10690,7 @@
         <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>82</v>
@@ -10652,12 +10705,14 @@
         <v>201</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>430</v>
+        <v>320</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>82</v>
@@ -10670,7 +10725,7 @@
         <v>82</v>
       </c>
       <c r="T69" t="s" s="2">
-        <v>82</v>
+        <v>323</v>
       </c>
       <c r="U69" t="s" s="2">
         <v>82</v>
@@ -10706,13 +10761,13 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>432</v>
+        <v>324</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>82</v>
@@ -10721,7 +10776,7 @@
         <v>102</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>433</v>
+        <v>325</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>82</v>
@@ -10730,7 +10785,7 @@
         <v>82</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>434</v>
+        <v>326</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10738,10 +10793,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>435</v>
+        <v>383</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>435</v>
+        <v>328</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10752,7 +10807,7 @@
         <v>80</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>82</v>
@@ -10764,13 +10819,13 @@
         <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>201</v>
+        <v>329</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>436</v>
+        <v>330</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>437</v>
+        <v>331</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10821,13 +10876,13 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>438</v>
+        <v>332</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>82</v>
@@ -10836,7 +10891,7 @@
         <v>102</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>439</v>
+        <v>333</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>82</v>
@@ -10845,7 +10900,7 @@
         <v>82</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>440</v>
+        <v>334</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10853,10 +10908,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>441</v>
+        <v>384</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>441</v>
+        <v>336</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10879,18 +10934,18 @@
         <v>91</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>442</v>
+        <v>338</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>444</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>82</v>
       </c>
@@ -10938,7 +10993,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>445</v>
+        <v>341</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10953,7 +11008,7 @@
         <v>102</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>446</v>
+        <v>342</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>82</v>
@@ -10962,18 +11017,18 @@
         <v>82</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>447</v>
+        <v>343</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>448</v>
+        <v>385</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>448</v>
+        <v>385</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10984,36 +11039,38 @@
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I72" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>449</v>
+        <v>290</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>450</v>
+        <v>386</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>451</v>
+        <v>387</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>452</v>
+        <v>388</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>453</v>
+        <v>389</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="R72" t="s" s="2">
         <v>82</v>
       </c>
@@ -11057,13 +11114,13 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>448</v>
+        <v>385</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>82</v>
@@ -11072,27 +11129,27 @@
         <v>102</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>454</v>
+        <v>391</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>455</v>
+        <v>205</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>82</v>
+        <v>392</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>456</v>
+        <v>82</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11100,13 +11157,13 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>82</v>
@@ -11115,19 +11172,19 @@
         <v>91</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>110</v>
+        <v>394</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>458</v>
+        <v>395</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>459</v>
+        <v>396</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>460</v>
+        <v>397</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>461</v>
+        <v>398</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11152,13 +11209,13 @@
         <v>82</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>218</v>
+        <v>82</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>462</v>
+        <v>82</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>463</v>
+        <v>82</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>82</v>
@@ -11176,13 +11233,13 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>82</v>
@@ -11191,27 +11248,27 @@
         <v>102</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>464</v>
+        <v>399</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>465</v>
+        <v>400</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>466</v>
+        <v>401</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>467</v>
+        <v>402</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>467</v>
+        <v>402</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11225,29 +11282,25 @@
         <v>90</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>468</v>
+        <v>201</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>469</v>
+        <v>202</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>82</v>
       </c>
@@ -11295,7 +11348,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>467</v>
+        <v>204</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11307,66 +11360,64 @@
         <v>82</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>473</v>
+        <v>205</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>474</v>
+        <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>475</v>
+        <v>82</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>476</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>477</v>
+        <v>403</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>477</v>
+        <v>403</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>478</v>
+        <v>135</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>479</v>
+        <v>208</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>480</v>
+        <v>209</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>482</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>82</v>
       </c>
@@ -11402,54 +11453,54 @@
         <v>82</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>82</v>
+        <v>210</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>477</v>
+        <v>211</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>483</v>
+        <v>205</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>484</v>
+        <v>82</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>485</v>
+        <v>404</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>485</v>
+        <v>404</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11460,31 +11511,31 @@
         <v>80</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I76" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="J76" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>486</v>
+        <v>110</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>487</v>
+        <v>405</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>488</v>
+        <v>406</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>489</v>
+        <v>407</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>490</v>
+        <v>408</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11509,13 +11560,13 @@
         <v>82</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>82</v>
+        <v>409</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>82</v>
+        <v>410</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>82</v>
@@ -11533,13 +11584,13 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>485</v>
+        <v>411</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>82</v>
@@ -11548,16 +11599,16 @@
         <v>102</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>491</v>
+        <v>412</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>492</v>
+        <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>493</v>
+        <v>413</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>82</v>
@@ -11565,10 +11616,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>494</v>
+        <v>414</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>494</v>
+        <v>414</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11588,19 +11639,23 @@
         <v>82</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>201</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>202</v>
+        <v>415</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>82</v>
       </c>
@@ -11648,7 +11703,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>204</v>
+        <v>419</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11660,10 +11715,10 @@
         <v>82</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>205</v>
+        <v>420</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>82</v>
@@ -11672,29 +11727,29 @@
         <v>82</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>82</v>
+        <v>421</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
-        <v>495</v>
+        <v>422</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>495</v>
+        <v>422</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>82</v>
+        <v>423</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>91</v>
@@ -11703,18 +11758,20 @@
         <v>82</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>135</v>
+        <v>201</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>136</v>
+        <v>424</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>82</v>
@@ -11751,34 +11808,34 @@
         <v>82</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="AD78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>211</v>
+        <v>427</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>82</v>
+        <v>428</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>82</v>
@@ -11787,7 +11844,7 @@
         <v>82</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>82</v>
+        <v>429</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>82</v>
@@ -11795,43 +11852,43 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>496</v>
+        <v>430</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="C79" t="s" s="2">
-        <v>497</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>82</v>
+        <v>431</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>81</v>
+        <v>432</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>498</v>
+        <v>201</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>136</v>
+        <v>433</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11868,19 +11925,17 @@
         <v>82</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="AC79" s="2"/>
       <c r="AD79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>211</v>
+        <v>437</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11892,10 +11947,10 @@
         <v>82</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>82</v>
+        <v>438</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>82</v>
@@ -11904,7 +11959,7 @@
         <v>82</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>82</v>
+        <v>439</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
@@ -11912,23 +11967,23 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>495</v>
+        <v>430</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>501</v>
+        <v>441</v>
       </c>
       <c r="D80" t="s" s="2">
-        <v>82</v>
+        <v>431</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>82</v>
@@ -11937,18 +11992,20 @@
         <v>82</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>502</v>
+        <v>201</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>503</v>
+        <v>442</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>82</v>
@@ -11997,7 +12054,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>211</v>
+        <v>437</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12009,10 +12066,10 @@
         <v>82</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>82</v>
+        <v>438</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>82</v>
@@ -12021,7 +12078,7 @@
         <v>82</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>82</v>
+        <v>439</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>82</v>
@@ -12029,23 +12086,23 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>505</v>
+        <v>443</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>495</v>
+        <v>430</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>506</v>
+        <v>444</v>
       </c>
       <c r="D81" t="s" s="2">
-        <v>82</v>
+        <v>431</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>82</v>
@@ -12054,18 +12111,20 @@
         <v>82</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>507</v>
+        <v>201</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>136</v>
+        <v>445</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -12114,7 +12173,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>211</v>
+        <v>437</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12126,10 +12185,10 @@
         <v>82</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>82</v>
+        <v>438</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>82</v>
@@ -12138,7 +12197,7 @@
         <v>82</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>82</v>
+        <v>439</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
@@ -12146,10 +12205,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>509</v>
+        <v>446</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>509</v>
+        <v>446</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12160,32 +12219,28 @@
         <v>80</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J82" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>510</v>
+        <v>447</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>513</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>82</v>
       </c>
@@ -12197,7 +12252,7 @@
         <v>82</v>
       </c>
       <c r="T82" t="s" s="2">
-        <v>514</v>
+        <v>82</v>
       </c>
       <c r="U82" t="s" s="2">
         <v>82</v>
@@ -12209,13 +12264,13 @@
         <v>82</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>218</v>
+        <v>82</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>515</v>
+        <v>82</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>516</v>
+        <v>82</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>82</v>
@@ -12233,13 +12288,13 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>517</v>
+        <v>449</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>82</v>
@@ -12248,7 +12303,7 @@
         <v>102</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>395</v>
+        <v>450</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>82</v>
@@ -12257,7 +12312,7 @@
         <v>82</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>518</v>
+        <v>451</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
@@ -12265,10 +12320,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>519</v>
+        <v>452</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>519</v>
+        <v>452</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12279,7 +12334,7 @@
         <v>80</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>82</v>
@@ -12291,17 +12346,15 @@
         <v>91</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>520</v>
+        <v>453</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>522</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>82</v>
@@ -12314,7 +12367,7 @@
         <v>82</v>
       </c>
       <c r="T83" t="s" s="2">
-        <v>523</v>
+        <v>82</v>
       </c>
       <c r="U83" t="s" s="2">
         <v>82</v>
@@ -12326,13 +12379,13 @@
         <v>82</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>218</v>
+        <v>82</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>524</v>
+        <v>82</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>525</v>
+        <v>82</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>82</v>
@@ -12350,13 +12403,13 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>526</v>
+        <v>455</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>82</v>
@@ -12365,7 +12418,7 @@
         <v>102</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>395</v>
+        <v>456</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>82</v>
@@ -12374,7 +12427,7 @@
         <v>82</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>527</v>
+        <v>457</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12382,10 +12435,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>528</v>
+        <v>458</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>528</v>
+        <v>458</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12408,19 +12461,17 @@
         <v>91</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>201</v>
+        <v>329</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>529</v>
+        <v>459</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>531</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>401</v>
+        <v>461</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>82</v>
@@ -12433,7 +12484,7 @@
         <v>82</v>
       </c>
       <c r="T84" t="s" s="2">
-        <v>532</v>
+        <v>82</v>
       </c>
       <c r="U84" t="s" s="2">
         <v>82</v>
@@ -12469,7 +12520,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>533</v>
+        <v>462</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12484,7 +12535,7 @@
         <v>102</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>403</v>
+        <v>463</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>82</v>
@@ -12493,7 +12544,7 @@
         <v>82</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>534</v>
+        <v>464</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12501,10 +12552,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>535</v>
+        <v>465</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>535</v>
+        <v>465</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12527,16 +12578,20 @@
         <v>91</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>201</v>
+        <v>466</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>536</v>
+        <v>467</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
+        <v>468</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
       </c>
@@ -12548,7 +12603,7 @@
         <v>82</v>
       </c>
       <c r="T85" t="s" s="2">
-        <v>538</v>
+        <v>82</v>
       </c>
       <c r="U85" t="s" s="2">
         <v>82</v>
@@ -12584,7 +12639,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>539</v>
+        <v>465</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12599,16 +12654,16 @@
         <v>102</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>82</v>
+        <v>472</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>541</v>
+        <v>473</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
@@ -12616,14 +12671,14 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>542</v>
+        <v>474</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>542</v>
+        <v>474</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>543</v>
+        <v>82</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12642,16 +12697,20 @@
         <v>91</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>544</v>
+        <v>475</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
       </c>
@@ -12663,7 +12722,7 @@
         <v>82</v>
       </c>
       <c r="T86" t="s" s="2">
-        <v>546</v>
+        <v>82</v>
       </c>
       <c r="U86" t="s" s="2">
         <v>82</v>
@@ -12675,13 +12734,13 @@
         <v>82</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>82</v>
+        <v>479</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>82</v>
+        <v>480</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>82</v>
@@ -12699,7 +12758,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>547</v>
+        <v>474</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12714,31 +12773,31 @@
         <v>102</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>548</v>
+        <v>481</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>82</v>
+        <v>482</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>549</v>
+        <v>483</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
-        <v>550</v>
+        <v>484</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>550</v>
+        <v>484</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>551</v>
+        <v>82</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12748,7 +12807,7 @@
         <v>90</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>82</v>
@@ -12757,18 +12816,20 @@
         <v>91</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>201</v>
+        <v>485</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>553</v>
+        <v>487</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="O87" s="2"/>
+        <v>488</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>489</v>
+      </c>
       <c r="P87" t="s" s="2">
         <v>82</v>
       </c>
@@ -12780,7 +12841,7 @@
         <v>82</v>
       </c>
       <c r="T87" t="s" s="2">
-        <v>555</v>
+        <v>82</v>
       </c>
       <c r="U87" t="s" s="2">
         <v>82</v>
@@ -12816,7 +12877,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>556</v>
+        <v>484</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12831,31 +12892,31 @@
         <v>102</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>557</v>
+        <v>490</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>82</v>
+        <v>491</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>558</v>
+        <v>492</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>82</v>
+        <v>493</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>559</v>
+        <v>494</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>559</v>
+        <v>494</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>560</v>
+        <v>82</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12868,22 +12929,26 @@
         <v>82</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J88" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>201</v>
+        <v>495</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>561</v>
+        <v>496</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
+        <v>497</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>499</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
       </c>
@@ -12931,7 +12996,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>563</v>
+        <v>494</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -12946,41 +13011,41 @@
         <v>102</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>564</v>
+        <v>500</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>565</v>
+        <v>501</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
-        <v>566</v>
+        <v>502</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>566</v>
+        <v>502</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>567</v>
+        <v>82</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>82</v>
@@ -12989,16 +13054,20 @@
         <v>91</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>201</v>
+        <v>503</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>568</v>
+        <v>504</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
+        <v>505</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>507</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>82</v>
       </c>
@@ -13010,7 +13079,7 @@
         <v>82</v>
       </c>
       <c r="T89" t="s" s="2">
-        <v>570</v>
+        <v>82</v>
       </c>
       <c r="U89" t="s" s="2">
         <v>82</v>
@@ -13046,13 +13115,13 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>571</v>
+        <v>502</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>82</v>
@@ -13061,16 +13130,16 @@
         <v>102</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>572</v>
+        <v>508</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>82</v>
+        <v>509</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>573</v>
+        <v>510</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>82</v>
@@ -13078,10 +13147,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>574</v>
+        <v>511</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>574</v>
+        <v>511</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13101,20 +13170,18 @@
         <v>82</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K90" t="s" s="2">
         <v>201</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>575</v>
+        <v>202</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>577</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N90" s="2"/>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>82</v>
@@ -13163,7 +13230,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>578</v>
+        <v>204</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13175,10 +13242,10 @@
         <v>82</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>579</v>
+        <v>205</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>82</v>
@@ -13187,7 +13254,7 @@
         <v>82</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>580</v>
+        <v>82</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>82</v>
@@ -13195,10 +13262,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>581</v>
+        <v>512</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>581</v>
+        <v>512</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13209,30 +13276,28 @@
         <v>80</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>329</v>
+        <v>135</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>582</v>
+        <v>136</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>583</v>
+        <v>137</v>
       </c>
       <c r="N91" s="2"/>
-      <c r="O91" t="s" s="2">
-        <v>584</v>
-      </c>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>82</v>
       </c>
@@ -13244,7 +13309,7 @@
         <v>82</v>
       </c>
       <c r="T91" t="s" s="2">
-        <v>585</v>
+        <v>82</v>
       </c>
       <c r="U91" t="s" s="2">
         <v>82</v>
@@ -13268,34 +13333,34 @@
         <v>82</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="AC91" t="s" s="2">
-        <v>82</v>
+        <v>210</v>
       </c>
       <c r="AD91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>586</v>
+        <v>211</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>446</v>
+        <v>82</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>82</v>
@@ -13304,7 +13369,7 @@
         <v>82</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>587</v>
+        <v>82</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
@@ -13312,12 +13377,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>588</v>
+        <v>513</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="C92" s="2"/>
+        <v>512</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>514</v>
+      </c>
       <c r="D92" t="s" s="2">
         <v>82</v>
       </c>
@@ -13326,7 +13393,7 @@
         <v>80</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>82</v>
@@ -13338,18 +13405,16 @@
         <v>82</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>225</v>
+        <v>515</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>589</v>
+        <v>136</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>590</v>
+        <v>516</v>
       </c>
       <c r="N92" s="2"/>
-      <c r="O92" t="s" s="2">
-        <v>591</v>
-      </c>
+      <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>82</v>
       </c>
@@ -13373,11 +13438,13 @@
         <v>82</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="Y92" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z92" t="s" s="2">
-        <v>592</v>
+        <v>82</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>82</v>
@@ -13395,31 +13462,31 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>588</v>
+        <v>211</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>593</v>
+        <v>82</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>594</v>
+        <v>82</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>595</v>
+        <v>82</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>82</v>
@@ -13427,12 +13494,14 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>596</v>
+        <v>517</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="C93" s="2"/>
+        <v>512</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>518</v>
+      </c>
       <c r="D93" t="s" s="2">
         <v>82</v>
       </c>
@@ -13441,7 +13510,7 @@
         <v>80</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>82</v>
@@ -13453,20 +13522,16 @@
         <v>82</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>597</v>
+        <v>519</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>598</v>
+        <v>520</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>601</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>82</v>
       </c>
@@ -13514,31 +13579,31 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>596</v>
+        <v>211</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>602</v>
+        <v>82</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>603</v>
+        <v>82</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>82</v>
@@ -13546,12 +13611,14 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>604</v>
+        <v>522</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="C94" s="2"/>
+        <v>512</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>523</v>
+      </c>
       <c r="D94" t="s" s="2">
         <v>82</v>
       </c>
@@ -13572,20 +13639,16 @@
         <v>82</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>605</v>
+        <v>524</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>606</v>
+        <v>136</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>609</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>82</v>
       </c>
@@ -13633,7 +13696,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>604</v>
+        <v>211</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13645,19 +13708,19 @@
         <v>82</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>610</v>
+        <v>82</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>611</v>
+        <v>82</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>82</v>
@@ -13665,10 +13728,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>612</v>
+        <v>526</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>612</v>
+        <v>526</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13679,31 +13742,31 @@
         <v>80</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>613</v>
+        <v>110</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>614</v>
+        <v>527</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>615</v>
+        <v>528</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>616</v>
+        <v>529</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>617</v>
+        <v>530</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>82</v>
@@ -13716,7 +13779,7 @@
         <v>82</v>
       </c>
       <c r="T95" t="s" s="2">
-        <v>82</v>
+        <v>531</v>
       </c>
       <c r="U95" t="s" s="2">
         <v>82</v>
@@ -13728,13 +13791,13 @@
         <v>82</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>82</v>
+        <v>532</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>82</v>
+        <v>533</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>82</v>
@@ -13752,31 +13815,31 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>612</v>
+        <v>534</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>618</v>
+        <v>102</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>619</v>
+        <v>412</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>82</v>
+        <v>535</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
@@ -13784,10 +13847,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>620</v>
+        <v>536</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>620</v>
+        <v>536</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13807,18 +13870,20 @@
         <v>82</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>202</v>
+        <v>537</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N96" s="2"/>
+        <v>538</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>539</v>
+      </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>82</v>
@@ -13831,7 +13896,7 @@
         <v>82</v>
       </c>
       <c r="T96" t="s" s="2">
-        <v>82</v>
+        <v>540</v>
       </c>
       <c r="U96" t="s" s="2">
         <v>82</v>
@@ -13843,13 +13908,13 @@
         <v>82</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>82</v>
+        <v>541</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>82</v>
+        <v>542</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>82</v>
@@ -13867,7 +13932,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>204</v>
+        <v>543</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -13879,10 +13944,10 @@
         <v>82</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>205</v>
+        <v>412</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>82</v>
@@ -13891,7 +13956,7 @@
         <v>82</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>82</v>
+        <v>544</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
@@ -13899,21 +13964,21 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>621</v>
+        <v>545</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>621</v>
+        <v>545</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>82</v>
@@ -13922,21 +13987,23 @@
         <v>82</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>135</v>
+        <v>201</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>208</v>
+        <v>546</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>209</v>
+        <v>547</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O97" s="2"/>
+        <v>548</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="P97" t="s" s="2">
         <v>82</v>
       </c>
@@ -13948,7 +14015,7 @@
         <v>82</v>
       </c>
       <c r="T97" t="s" s="2">
-        <v>82</v>
+        <v>549</v>
       </c>
       <c r="U97" t="s" s="2">
         <v>82</v>
@@ -13984,22 +14051,22 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>211</v>
+        <v>550</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>205</v>
+        <v>420</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>82</v>
@@ -14008,22 +14075,22 @@
         <v>82</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>82</v>
+        <v>551</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="98" hidden="true">
+    <row r="98">
       <c r="A98" t="s" s="2">
-        <v>622</v>
+        <v>552</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>622</v>
+        <v>552</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>623</v>
+        <v>82</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -14033,29 +14100,25 @@
         <v>81</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J98" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>135</v>
+        <v>201</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>624</v>
+        <v>553</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>82</v>
       </c>
@@ -14067,7 +14130,7 @@
         <v>82</v>
       </c>
       <c r="T98" t="s" s="2">
-        <v>82</v>
+        <v>555</v>
       </c>
       <c r="U98" t="s" s="2">
         <v>82</v>
@@ -14103,7 +14166,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>626</v>
+        <v>556</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14115,10 +14178,10 @@
         <v>82</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>133</v>
+        <v>557</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>82</v>
@@ -14127,7 +14190,7 @@
         <v>82</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>82</v>
+        <v>558</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
@@ -14135,21 +14198,21 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>627</v>
+        <v>559</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>627</v>
+        <v>559</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>82</v>
+        <v>560</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>82</v>
@@ -14158,21 +14221,19 @@
         <v>82</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>628</v>
+        <v>561</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>629</v>
+        <v>562</v>
       </c>
       <c r="N99" s="2"/>
-      <c r="O99" t="s" s="2">
-        <v>630</v>
-      </c>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>82</v>
       </c>
@@ -14184,7 +14245,7 @@
         <v>82</v>
       </c>
       <c r="T99" t="s" s="2">
-        <v>82</v>
+        <v>563</v>
       </c>
       <c r="U99" t="s" s="2">
         <v>82</v>
@@ -14196,11 +14257,13 @@
         <v>82</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="Y99" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z99" t="s" s="2">
-        <v>631</v>
+        <v>82</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>82</v>
@@ -14218,13 +14281,13 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>627</v>
+        <v>564</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>82</v>
@@ -14233,16 +14296,16 @@
         <v>102</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>632</v>
+        <v>565</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>633</v>
+        <v>566</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
@@ -14250,14 +14313,14 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>634</v>
+        <v>567</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>634</v>
+        <v>567</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>82</v>
+        <v>568</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
@@ -14273,21 +14336,21 @@
         <v>82</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>377</v>
+        <v>201</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>635</v>
+        <v>569</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="N100" s="2"/>
-      <c r="O100" t="s" s="2">
-        <v>637</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>82</v>
       </c>
@@ -14299,7 +14362,7 @@
         <v>82</v>
       </c>
       <c r="T100" t="s" s="2">
-        <v>82</v>
+        <v>572</v>
       </c>
       <c r="U100" t="s" s="2">
         <v>82</v>
@@ -14335,7 +14398,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>634</v>
+        <v>573</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14350,16 +14413,16 @@
         <v>102</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>382</v>
+        <v>574</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>638</v>
+        <v>575</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>82</v>
@@ -14367,21 +14430,21 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>639</v>
+        <v>576</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>639</v>
+        <v>576</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>82</v>
+        <v>577</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>82</v>
@@ -14390,23 +14453,19 @@
         <v>82</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>449</v>
+        <v>201</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>640</v>
+        <v>578</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>453</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>82</v>
       </c>
@@ -14454,13 +14513,13 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>639</v>
+        <v>580</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>82</v>
@@ -14469,16 +14528,16 @@
         <v>102</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>454</v>
+        <v>581</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>643</v>
+        <v>582</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>82</v>
@@ -14486,14 +14545,14 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>644</v>
+        <v>583</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>644</v>
+        <v>583</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>82</v>
+        <v>584</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14509,21 +14568,19 @@
         <v>82</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>486</v>
+        <v>201</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>645</v>
+        <v>585</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>646</v>
+        <v>586</v>
       </c>
       <c r="N102" s="2"/>
-      <c r="O102" t="s" s="2">
-        <v>647</v>
-      </c>
+      <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>82</v>
       </c>
@@ -14535,7 +14592,7 @@
         <v>82</v>
       </c>
       <c r="T102" t="s" s="2">
-        <v>82</v>
+        <v>587</v>
       </c>
       <c r="U102" t="s" s="2">
         <v>82</v>
@@ -14571,7 +14628,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>644</v>
+        <v>588</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14586,16 +14643,16 @@
         <v>102</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>491</v>
+        <v>589</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>648</v>
+        <v>590</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>82</v>
@@ -14603,10 +14660,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>649</v>
+        <v>591</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>649</v>
+        <v>591</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14626,21 +14683,21 @@
         <v>82</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>458</v>
+        <v>592</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="N103" s="2"/>
-      <c r="O103" t="s" s="2">
-        <v>651</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>82</v>
       </c>
@@ -14664,13 +14721,13 @@
         <v>82</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>218</v>
+        <v>82</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>462</v>
+        <v>82</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>463</v>
+        <v>82</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>82</v>
@@ -14688,7 +14745,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>649</v>
+        <v>595</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14703,16 +14760,16 @@
         <v>102</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>464</v>
+        <v>596</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>652</v>
+        <v>597</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>82</v>
@@ -14720,10 +14777,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>653</v>
+        <v>598</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>653</v>
+        <v>598</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14743,20 +14800,20 @@
         <v>82</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>654</v>
+        <v>599</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>655</v>
+        <v>600</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
-        <v>656</v>
+        <v>601</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>82</v>
@@ -14769,7 +14826,7 @@
         <v>82</v>
       </c>
       <c r="T104" t="s" s="2">
-        <v>82</v>
+        <v>602</v>
       </c>
       <c r="U104" t="s" s="2">
         <v>82</v>
@@ -14805,7 +14862,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>653</v>
+        <v>603</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -14814,22 +14871,22 @@
         <v>90</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>657</v>
+        <v>82</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>658</v>
+        <v>463</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>659</v>
+        <v>604</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>82</v>
@@ -14837,10 +14894,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>660</v>
+        <v>605</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>660</v>
+        <v>605</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14863,16 +14920,18 @@
         <v>82</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>329</v>
+        <v>225</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>661</v>
+        <v>606</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>662</v>
+        <v>607</v>
       </c>
       <c r="N105" s="2"/>
-      <c r="O105" s="2"/>
+      <c r="O105" t="s" s="2">
+        <v>608</v>
+      </c>
       <c r="P105" t="s" s="2">
         <v>82</v>
       </c>
@@ -14896,13 +14955,11 @@
         <v>82</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="Y105" s="2"/>
       <c r="Z105" t="s" s="2">
-        <v>82</v>
+        <v>609</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>82</v>
@@ -14920,7 +14977,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>660</v>
+        <v>605</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -14935,16 +14992,16 @@
         <v>102</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>663</v>
+        <v>610</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>205</v>
+        <v>611</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>82</v>
+        <v>612</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>82</v>
@@ -14952,10 +15009,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>664</v>
+        <v>613</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>664</v>
+        <v>613</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14966,7 +15023,7 @@
         <v>80</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>82</v>
@@ -14978,19 +15035,19 @@
         <v>82</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>665</v>
+        <v>615</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>666</v>
+        <v>616</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>667</v>
+        <v>617</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>668</v>
+        <v>618</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -15039,13 +15096,13 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>664</v>
+        <v>613</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>82</v>
@@ -15054,16 +15111,16 @@
         <v>102</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>669</v>
+        <v>619</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>670</v>
+        <v>205</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>82</v>
+        <v>620</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>82</v>
@@ -15071,10 +15128,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>671</v>
+        <v>621</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>671</v>
+        <v>621</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15085,7 +15142,7 @@
         <v>80</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>82</v>
@@ -15097,16 +15154,20 @@
         <v>82</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>201</v>
+        <v>622</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>202</v>
+        <v>623</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N107" s="2"/>
-      <c r="O107" s="2"/>
+        <v>624</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>626</v>
+      </c>
       <c r="P107" t="s" s="2">
         <v>82</v>
       </c>
@@ -15154,31 +15215,31 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>204</v>
+        <v>621</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="AK107" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="AL107" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AL107" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AM107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>82</v>
+        <v>628</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
@@ -15186,14 +15247,14 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>672</v>
+        <v>629</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>672</v>
+        <v>629</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -15212,18 +15273,20 @@
         <v>82</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>135</v>
+        <v>630</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>208</v>
+        <v>631</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>209</v>
+        <v>632</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O108" s="2"/>
+        <v>633</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>634</v>
+      </c>
       <c r="P108" t="s" s="2">
         <v>82</v>
       </c>
@@ -15271,7 +15334,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>211</v>
+        <v>629</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15283,13 +15346,13 @@
         <v>82</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>141</v>
+        <v>635</v>
       </c>
       <c r="AK108" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="AL108" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>82</v>
@@ -15303,46 +15366,42 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>673</v>
+        <v>637</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>673</v>
+        <v>637</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>623</v>
+        <v>82</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>135</v>
+        <v>201</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>624</v>
+        <v>202</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>82</v>
       </c>
@@ -15390,22 +15449,22 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>626</v>
+        <v>204</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>82</v>
@@ -15422,21 +15481,21 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>674</v>
+        <v>638</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>674</v>
+        <v>638</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>82</v>
@@ -15448,20 +15507,18 @@
         <v>82</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>675</v>
+        <v>208</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>676</v>
+        <v>209</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>678</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
         <v>82</v>
       </c>
@@ -15485,13 +15542,13 @@
         <v>82</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>82</v>
@@ -15509,31 +15566,31 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>674</v>
+        <v>211</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>679</v>
+        <v>205</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>680</v>
+        <v>82</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>681</v>
+        <v>82</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
@@ -15541,45 +15598,45 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>682</v>
+        <v>639</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>682</v>
+        <v>639</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>82</v>
+        <v>640</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>290</v>
+        <v>135</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>683</v>
+        <v>641</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>684</v>
+        <v>642</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>685</v>
+        <v>182</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>686</v>
+        <v>183</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>82</v>
@@ -15628,31 +15685,31 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>682</v>
+        <v>643</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>687</v>
+        <v>133</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>688</v>
+        <v>82</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>689</v>
+        <v>82</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>82</v>
@@ -15660,14 +15717,14 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>690</v>
+        <v>644</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>690</v>
+        <v>644</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>691</v>
+        <v>82</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -15686,18 +15743,18 @@
         <v>82</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>692</v>
+        <v>225</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>693</v>
+        <v>645</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>694</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="O112" s="2"/>
+        <v>646</v>
+      </c>
+      <c r="N112" s="2"/>
+      <c r="O112" t="s" s="2">
+        <v>647</v>
+      </c>
       <c r="P112" t="s" s="2">
         <v>82</v>
       </c>
@@ -15721,13 +15778,11 @@
         <v>82</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="Y112" s="2"/>
       <c r="Z112" t="s" s="2">
-        <v>82</v>
+        <v>648</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>82</v>
@@ -15745,7 +15800,7 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>690</v>
+        <v>644</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -15760,7 +15815,7 @@
         <v>102</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>696</v>
+        <v>649</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>205</v>
@@ -15769,7 +15824,7 @@
         <v>82</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>697</v>
+        <v>650</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>82</v>
@@ -15777,10 +15832,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>698</v>
+        <v>651</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>698</v>
+        <v>651</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15800,22 +15855,20 @@
         <v>82</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>337</v>
+        <v>394</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>699</v>
+        <v>652</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>700</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>701</v>
-      </c>
+        <v>653</v>
+      </c>
+      <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
-        <v>702</v>
+        <v>654</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
@@ -15864,7 +15917,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>698</v>
+        <v>651</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -15879,16 +15932,16 @@
         <v>102</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>658</v>
+        <v>399</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>703</v>
+        <v>205</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>82</v>
+        <v>655</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>82</v>
@@ -15896,10 +15949,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>704</v>
+        <v>656</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>704</v>
+        <v>656</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15916,25 +15969,25 @@
         <v>82</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>613</v>
+        <v>466</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>705</v>
+        <v>657</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>706</v>
+        <v>658</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>707</v>
+        <v>659</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>708</v>
+        <v>470</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>82</v>
@@ -15983,7 +16036,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>704</v>
+        <v>656</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -15998,7 +16051,7 @@
         <v>102</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>709</v>
+        <v>471</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>205</v>
@@ -16007,7 +16060,7 @@
         <v>82</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>82</v>
+        <v>660</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>82</v>
@@ -16015,10 +16068,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>710</v>
+        <v>661</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>710</v>
+        <v>661</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16041,16 +16094,18 @@
         <v>82</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>201</v>
+        <v>503</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>202</v>
+        <v>662</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>203</v>
+        <v>663</v>
       </c>
       <c r="N115" s="2"/>
-      <c r="O115" s="2"/>
+      <c r="O115" t="s" s="2">
+        <v>664</v>
+      </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
       </c>
@@ -16098,7 +16153,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>204</v>
+        <v>661</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16110,19 +16165,19 @@
         <v>82</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="AK115" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AL115" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AL115" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AM115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>82</v>
+        <v>665</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>82</v>
@@ -16130,21 +16185,21 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>711</v>
+        <v>666</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>711</v>
+        <v>666</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>82</v>
@@ -16156,18 +16211,18 @@
         <v>82</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>208</v>
+        <v>475</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O116" s="2"/>
+        <v>667</v>
+      </c>
+      <c r="N116" s="2"/>
+      <c r="O116" t="s" s="2">
+        <v>668</v>
+      </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
       </c>
@@ -16191,13 +16246,13 @@
         <v>82</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>82</v>
+        <v>479</v>
       </c>
       <c r="Z116" t="s" s="2">
-        <v>82</v>
+        <v>480</v>
       </c>
       <c r="AA116" t="s" s="2">
         <v>82</v>
@@ -16215,31 +16270,31 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>211</v>
+        <v>666</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI116" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK116" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AL116" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AL116" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AM116" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>82</v>
+        <v>669</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>82</v>
@@ -16247,45 +16302,43 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>712</v>
+        <v>670</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>712</v>
+        <v>670</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>623</v>
+        <v>82</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>135</v>
+        <v>337</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>624</v>
+        <v>671</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>672</v>
+      </c>
+      <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
-        <v>183</v>
+        <v>673</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16334,31 +16387,31 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>626</v>
+        <v>670</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>82</v>
+        <v>674</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>133</v>
+        <v>675</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>82</v>
+        <v>676</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>82</v>
@@ -16366,10 +16419,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>713</v>
+        <v>677</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>713</v>
+        <v>677</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16377,7 +16430,7 @@
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>90</v>
@@ -16389,20 +16442,18 @@
         <v>82</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>714</v>
+        <v>329</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>715</v>
+        <v>678</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>716</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>717</v>
-      </c>
+        <v>679</v>
+      </c>
+      <c r="N118" s="2"/>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
         <v>82</v>
@@ -16451,10 +16502,10 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>713</v>
+        <v>677</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>90</v>
@@ -16466,7 +16517,7 @@
         <v>102</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>192</v>
+        <v>680</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>205</v>
@@ -16475,7 +16526,7 @@
         <v>82</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>718</v>
+        <v>82</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>82</v>
@@ -16483,10 +16534,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>719</v>
+        <v>681</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>719</v>
+        <v>681</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16494,10 +16545,10 @@
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>82</v>
@@ -16506,19 +16557,23 @@
         <v>82</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>110</v>
+        <v>630</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>720</v>
+        <v>682</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>721</v>
-      </c>
-      <c r="N119" s="2"/>
-      <c r="O119" s="2"/>
+        <v>683</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="O119" t="s" s="2">
+        <v>685</v>
+      </c>
       <c r="P119" t="s" s="2">
         <v>82</v>
       </c>
@@ -16542,13 +16597,13 @@
         <v>82</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>218</v>
+        <v>82</v>
       </c>
       <c r="Y119" t="s" s="2">
-        <v>721</v>
+        <v>82</v>
       </c>
       <c r="Z119" t="s" s="2">
-        <v>722</v>
+        <v>82</v>
       </c>
       <c r="AA119" t="s" s="2">
         <v>82</v>
@@ -16566,13 +16621,13 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>719</v>
+        <v>681</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>82</v>
@@ -16581,23 +16636,1550 @@
         <v>102</v>
       </c>
       <c r="AK119" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="AL119" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="AM119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO119" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="120" hidden="true">
+      <c r="A120" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G120" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N120" s="2"/>
+      <c r="O120" s="2"/>
+      <c r="P120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q120" s="2"/>
+      <c r="R120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AL120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO120" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="121" hidden="true">
+      <c r="A121" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="D121" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="F121" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O121" s="2"/>
+      <c r="P121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q121" s="2"/>
+      <c r="R121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK121" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AL121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO121" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="122" hidden="true">
+      <c r="A122" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="E122" s="2"/>
+      <c r="F122" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G122" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O122" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="P122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q122" s="2"/>
+      <c r="R122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK122" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AL122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO122" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="123" hidden="true">
+      <c r="A123" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="C123" s="2"/>
+      <c r="D123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E123" s="2"/>
+      <c r="F123" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G123" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K123" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L123" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="N123" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="O123" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="P123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q123" s="2"/>
+      <c r="R123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X123" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="Y123" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Z123" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AA123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF123" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="AG123" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH123" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ123" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK123" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="AL123" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="AM123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN123" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="AO123" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="124" hidden="true">
+      <c r="A124" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="C124" s="2"/>
+      <c r="D124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E124" s="2"/>
+      <c r="F124" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G124" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K124" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L124" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="O124" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="P124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q124" s="2"/>
+      <c r="R124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF124" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="AG124" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH124" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ124" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK124" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="AL124" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="AM124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN124" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="AO124" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="125" hidden="true">
+      <c r="A125" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="E125" s="2"/>
+      <c r="F125" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G125" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="O125" s="2"/>
+      <c r="P125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q125" s="2"/>
+      <c r="R125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF125" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="AG125" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH125" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ125" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK125" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="AL125" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AM125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN125" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="AO125" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="126" hidden="true">
+      <c r="A126" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="C126" s="2"/>
+      <c r="D126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E126" s="2"/>
+      <c r="F126" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G126" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J126" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K126" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="O126" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="P126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q126" s="2"/>
+      <c r="R126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF126" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="AG126" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH126" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK126" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="AL126" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="AM126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO126" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="127" hidden="true">
+      <c r="A127" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="C127" s="2"/>
+      <c r="D127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E127" s="2"/>
+      <c r="F127" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G127" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I127" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J127" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K127" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="M127" t="s" s="2">
         <v>723</v>
       </c>
-      <c r="AL119" t="s" s="2">
+      <c r="N127" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="O127" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="P127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q127" s="2"/>
+      <c r="R127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF127" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="AG127" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH127" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ127" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK127" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="AL127" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AM119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO119" t="s" s="2">
+      <c r="AM127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO127" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="128" hidden="true">
+      <c r="A128" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="B128" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="C128" s="2"/>
+      <c r="D128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E128" s="2"/>
+      <c r="F128" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G128" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K128" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L128" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M128" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N128" s="2"/>
+      <c r="O128" s="2"/>
+      <c r="P128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q128" s="2"/>
+      <c r="R128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF128" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AG128" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH128" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK128" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AL128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO128" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="129" hidden="true">
+      <c r="A129" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="B129" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="C129" s="2"/>
+      <c r="D129" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="E129" s="2"/>
+      <c r="F129" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G129" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K129" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L129" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M129" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N129" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O129" s="2"/>
+      <c r="P129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q129" s="2"/>
+      <c r="R129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF129" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AG129" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH129" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ129" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK129" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AL129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO129" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="130" hidden="true">
+      <c r="A130" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="B130" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="C130" s="2"/>
+      <c r="D130" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="E130" s="2"/>
+      <c r="F130" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G130" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I130" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J130" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K130" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L130" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="N130" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O130" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="P130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q130" s="2"/>
+      <c r="R130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF130" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="AG130" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH130" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ130" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK130" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AL130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO130" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="131" hidden="true">
+      <c r="A131" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="B131" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="C131" s="2"/>
+      <c r="D131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E131" s="2"/>
+      <c r="F131" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G131" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J131" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K131" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="L131" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="M131" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="N131" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="O131" s="2"/>
+      <c r="P131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q131" s="2"/>
+      <c r="R131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF131" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="AG131" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH131" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ131" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK131" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AL131" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AM131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN131" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="AO131" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="132" hidden="true">
+      <c r="A132" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="B132" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="C132" s="2"/>
+      <c r="D132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E132" s="2"/>
+      <c r="F132" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G132" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J132" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K132" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L132" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="N132" s="2"/>
+      <c r="O132" s="2"/>
+      <c r="P132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q132" s="2"/>
+      <c r="R132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X132" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="Y132" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="Z132" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="AA132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF132" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="AG132" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH132" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ132" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK132" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="AL132" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AM132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO132" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO119">
+  <autoFilter ref="A1:AO132">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -16607,7 +18189,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI118">
+  <conditionalFormatting sqref="A2:AI131">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:04:35+00:00</t>
+    <t>2025-10-28T15:40:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:40:43+00:00</t>
+    <t>2025-10-28T15:55:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:55:35+00:00</t>
+    <t>2025-10-28T23:57:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1191,7 +1191,7 @@
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
   &lt;system value="http://snomed.info/sct"/&gt;
   &lt;code value="184107009"/&gt;
-  &lt;display value="Patient hospital visit number (observable entity)"/&gt;
+  &lt;display value="Patient hospital number"/&gt;
 &lt;/valueCoding&gt;</t>
   </si>
   <si>
@@ -10364,10 +10364,10 @@
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S66" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>82</v>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T23:57:44+00:00</t>
+    <t>2025-10-29T00:11:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:11:30+00:00</t>
+    <t>2025-10-29T00:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:33:44+00:00</t>
+    <t>2025-10-29T01:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T01:19:27+00:00</t>
+    <t>2025-10-29T02:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:00:22+00:00</t>
+    <t>2025-10-29T02:25:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:25:56+00:00</t>
+    <t>2025-10-29T03:19:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T03:19:57+00:00</t>
+    <t>2025-10-29T04:24:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T04:24:57+00:00</t>
+    <t>2025-10-29T05:09:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:09:17+00:00</t>
+    <t>2025-10-29T05:13:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:13:56+00:00</t>
+    <t>2025-10-29T05:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:50:12+00:00</t>
+    <t>2025-10-29T13:28:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T13:28:47+00:00</t>
+    <t>2025-10-29T15:51:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$130</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4944" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4870" uniqueCount="734">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:51:20+00:00</t>
+    <t>2025-10-30T01:53:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1357,20 +1357,16 @@
 middle name</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Given names (First name = [0], Middle name = [1], in order)</t>
   </si>
   <si>
     <t>Given name.</t>
   </si>
   <si>
-    <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to paractical limitations.  This element is not called "first name" since given names do not always come first.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:$this}
-</t>
+    <t>Index 0 = first name; index 1 = middle name. See DOH-PHIC-JAO-No-2021-002.</t>
+  </si>
+  <si>
+    <t>DOH-PHIC-JAO-No-2021-002: Patient.name.given[0] is expected to be the first name(s); Patient.name.given[1] (if present) is expected to be middle name(s).</t>
   </si>
   <si>
     <t>HumanName.given</t>
@@ -1380,24 +1376,6 @@
   </si>
   <si>
     <t>XPN.2 + XPN.3</t>
-  </si>
-  <si>
-    <t>Patient.name.given:FirstName</t>
-  </si>
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>First name</t>
-  </si>
-  <si>
-    <t>Patient.name.given:MiddleName</t>
-  </si>
-  <si>
-    <t>MiddleName</t>
-  </si>
-  <si>
-    <t>Middle name</t>
   </si>
   <si>
     <t>Patient.name.prefix</t>
@@ -2641,7 +2619,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO132"/>
+  <dimension ref="A1:AO130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -11850,7 +11828,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
         <v>430</v>
       </c>
@@ -11866,7 +11844,7 @@
         <v>90</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>432</v>
+        <v>81</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>91</v>
@@ -11881,15 +11859,17 @@
         <v>201</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="N79" t="s" s="2">
+      <c r="O79" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>82</v>
       </c>
@@ -11925,17 +11905,19 @@
         <v>82</v>
       </c>
       <c r="AB79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF79" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AC79" s="2"/>
-      <c r="AD79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11950,16 +11932,16 @@
         <v>102</v>
       </c>
       <c r="AK79" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN79" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
@@ -11967,23 +11949,21 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="C80" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>431</v>
+        <v>82</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>82</v>
@@ -11998,14 +11978,12 @@
         <v>201</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>82</v>
@@ -12054,7 +12032,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12069,7 +12047,7 @@
         <v>102</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>82</v>
@@ -12078,7 +12056,7 @@
         <v>82</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>82</v>
@@ -12086,23 +12064,21 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>444</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>431</v>
+        <v>82</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>82</v>
@@ -12117,14 +12093,12 @@
         <v>201</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -12173,7 +12147,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12188,7 +12162,7 @@
         <v>102</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>82</v>
@@ -12197,7 +12171,7 @@
         <v>82</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
@@ -12205,10 +12179,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12219,7 +12193,7 @@
         <v>80</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>82</v>
@@ -12231,16 +12205,18 @@
         <v>91</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>201</v>
+        <v>329</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>454</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>82</v>
       </c>
@@ -12288,13 +12264,13 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>82</v>
@@ -12303,7 +12279,7 @@
         <v>102</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>82</v>
@@ -12312,18 +12288,18 @@
         <v>82</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12337,7 +12313,7 @@
         <v>81</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>82</v>
@@ -12346,16 +12322,20 @@
         <v>91</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>201</v>
+        <v>459</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>463</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>82</v>
       </c>
@@ -12403,7 +12383,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12418,16 +12398,16 @@
         <v>102</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>82</v>
+        <v>465</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12435,10 +12415,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12461,17 +12441,19 @@
         <v>91</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>329</v>
+        <v>110</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>469</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="O84" t="s" s="2">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>82</v>
@@ -12496,13 +12478,13 @@
         <v>82</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>82</v>
+        <v>472</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>82</v>
+        <v>473</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>82</v>
@@ -12520,7 +12502,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12535,16 +12517,16 @@
         <v>102</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>82</v>
+        <v>475</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12552,10 +12534,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12566,7 +12548,7 @@
         <v>80</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>91</v>
@@ -12578,19 +12560,19 @@
         <v>91</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
@@ -12639,13 +12621,13 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>82</v>
@@ -12654,27 +12636,27 @@
         <v>102</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>82</v>
+        <v>486</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12691,25 +12673,25 @@
         <v>82</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J86" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>110</v>
+        <v>488</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12734,13 +12716,13 @@
         <v>82</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>218</v>
+        <v>82</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>479</v>
+        <v>82</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>480</v>
+        <v>82</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>82</v>
@@ -12758,7 +12740,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12773,16 +12755,16 @@
         <v>102</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>482</v>
+        <v>205</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -12790,10 +12772,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12804,7 +12786,7 @@
         <v>80</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>91</v>
@@ -12816,19 +12798,19 @@
         <v>91</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>82</v>
@@ -12877,13 +12859,13 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>82</v>
@@ -12892,27 +12874,27 @@
         <v>102</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>493</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12929,26 +12911,22 @@
         <v>82</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>495</v>
+        <v>201</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>496</v>
+        <v>202</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>499</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>82</v>
       </c>
@@ -12996,7 +12974,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>494</v>
+        <v>204</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -13008,30 +12986,30 @@
         <v>82</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>500</v>
+        <v>205</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>501</v>
+        <v>82</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13051,23 +13029,19 @@
         <v>82</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>503</v>
+        <v>135</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>504</v>
+        <v>136</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>507</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>82</v>
       </c>
@@ -13103,19 +13077,19 @@
         <v>82</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>82</v>
+        <v>210</v>
       </c>
       <c r="AD89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>502</v>
+        <v>211</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -13127,19 +13101,19 @@
         <v>82</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>508</v>
+        <v>82</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>509</v>
+        <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>510</v>
+        <v>82</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>82</v>
@@ -13147,12 +13121,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="C90" s="2"/>
+        <v>505</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>507</v>
+      </c>
       <c r="D90" t="s" s="2">
         <v>82</v>
       </c>
@@ -13161,7 +13137,7 @@
         <v>80</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>82</v>
@@ -13173,13 +13149,13 @@
         <v>82</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>201</v>
+        <v>508</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>202</v>
+        <v>136</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>203</v>
+        <v>509</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -13230,22 +13206,22 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>82</v>
@@ -13262,12 +13238,14 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="C91" s="2"/>
+        <v>505</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>511</v>
+      </c>
       <c r="D91" t="s" s="2">
         <v>82</v>
       </c>
@@ -13279,7 +13257,7 @@
         <v>81</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>82</v>
@@ -13288,13 +13266,13 @@
         <v>82</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>135</v>
+        <v>512</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>136</v>
+        <v>513</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>137</v>
+        <v>514</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -13333,16 +13311,16 @@
         <v>82</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AC91" t="s" s="2">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="AD91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>211</v>
@@ -13377,13 +13355,13 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D92" t="s" s="2">
         <v>82</v>
@@ -13405,13 +13383,13 @@
         <v>82</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="L92" t="s" s="2">
         <v>136</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13494,14 +13472,12 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="C93" t="s" s="2">
-        <v>518</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
         <v>82</v>
       </c>
@@ -13510,19 +13486,19 @@
         <v>80</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>519</v>
+        <v>110</v>
       </c>
       <c r="L93" t="s" s="2">
         <v>520</v>
@@ -13530,8 +13506,12 @@
       <c r="M93" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
+      <c r="N93" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>523</v>
+      </c>
       <c r="P93" t="s" s="2">
         <v>82</v>
       </c>
@@ -13543,7 +13523,7 @@
         <v>82</v>
       </c>
       <c r="T93" t="s" s="2">
-        <v>82</v>
+        <v>524</v>
       </c>
       <c r="U93" t="s" s="2">
         <v>82</v>
@@ -13555,13 +13535,13 @@
         <v>82</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>82</v>
+        <v>525</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>82</v>
+        <v>526</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>82</v>
@@ -13579,22 +13559,22 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>211</v>
+        <v>527</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>82</v>
+        <v>412</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>82</v>
@@ -13603,7 +13583,7 @@
         <v>82</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>82</v>
+        <v>528</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>82</v>
@@ -13611,14 +13591,12 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="C94" t="s" s="2">
-        <v>523</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
         <v>82</v>
       </c>
@@ -13627,7 +13605,7 @@
         <v>80</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>82</v>
@@ -13636,18 +13614,20 @@
         <v>82</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>524</v>
+        <v>110</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>136</v>
+        <v>530</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>531</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>532</v>
+      </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>82</v>
@@ -13660,7 +13640,7 @@
         <v>82</v>
       </c>
       <c r="T94" t="s" s="2">
-        <v>82</v>
+        <v>533</v>
       </c>
       <c r="U94" t="s" s="2">
         <v>82</v>
@@ -13672,13 +13652,13 @@
         <v>82</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>82</v>
+        <v>534</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>82</v>
+        <v>535</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>82</v>
@@ -13696,22 +13676,22 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>211</v>
+        <v>536</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>82</v>
+        <v>412</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>82</v>
@@ -13720,7 +13700,7 @@
         <v>82</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>82</v>
+        <v>537</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>82</v>
@@ -13728,10 +13708,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13748,25 +13728,25 @@
         <v>82</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J95" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>530</v>
+        <v>418</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>82</v>
@@ -13779,7 +13759,7 @@
         <v>82</v>
       </c>
       <c r="T95" t="s" s="2">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="U95" t="s" s="2">
         <v>82</v>
@@ -13791,13 +13771,13 @@
         <v>82</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>218</v>
+        <v>82</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>532</v>
+        <v>82</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>533</v>
+        <v>82</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>82</v>
@@ -13815,7 +13795,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13830,7 +13810,7 @@
         <v>102</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>82</v>
@@ -13839,18 +13819,18 @@
         <v>82</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="96" hidden="true">
+    <row r="96">
       <c r="A96" t="s" s="2">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13861,10 +13841,10 @@
         <v>80</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>82</v>
@@ -13873,17 +13853,15 @@
         <v>91</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>539</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>82</v>
@@ -13896,7 +13874,7 @@
         <v>82</v>
       </c>
       <c r="T96" t="s" s="2">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="U96" t="s" s="2">
         <v>82</v>
@@ -13908,13 +13886,13 @@
         <v>82</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>218</v>
+        <v>82</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>541</v>
+        <v>82</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>542</v>
+        <v>82</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>82</v>
@@ -13932,13 +13910,13 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>82</v>
@@ -13947,7 +13925,7 @@
         <v>102</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>412</v>
+        <v>550</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>82</v>
@@ -13956,7 +13934,7 @@
         <v>82</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
@@ -13964,14 +13942,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>82</v>
+        <v>553</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13993,17 +13971,13 @@
         <v>201</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>82</v>
       </c>
@@ -14015,7 +13989,7 @@
         <v>82</v>
       </c>
       <c r="T97" t="s" s="2">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="U97" t="s" s="2">
         <v>82</v>
@@ -14051,7 +14025,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14066,7 +14040,7 @@
         <v>102</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>420</v>
+        <v>558</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>82</v>
@@ -14075,32 +14049,32 @@
         <v>82</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>82</v>
+        <v>561</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>82</v>
@@ -14112,12 +14086,14 @@
         <v>201</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="N98" s="2"/>
+        <v>563</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>564</v>
+      </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14130,7 +14106,7 @@
         <v>82</v>
       </c>
       <c r="T98" t="s" s="2">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="U98" t="s" s="2">
         <v>82</v>
@@ -14166,13 +14142,13 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>82</v>
@@ -14181,7 +14157,7 @@
         <v>102</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>82</v>
@@ -14190,7 +14166,7 @@
         <v>82</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
@@ -14198,14 +14174,14 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -14227,10 +14203,10 @@
         <v>201</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -14245,7 +14221,7 @@
         <v>82</v>
       </c>
       <c r="T99" t="s" s="2">
-        <v>563</v>
+        <v>82</v>
       </c>
       <c r="U99" t="s" s="2">
         <v>82</v>
@@ -14281,7 +14257,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14296,7 +14272,7 @@
         <v>102</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>82</v>
@@ -14305,7 +14281,7 @@
         <v>82</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
@@ -14313,14 +14289,14 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
@@ -14342,14 +14318,12 @@
         <v>201</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>571</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="N100" s="2"/>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>82</v>
@@ -14362,7 +14336,7 @@
         <v>82</v>
       </c>
       <c r="T100" t="s" s="2">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="U100" t="s" s="2">
         <v>82</v>
@@ -14398,7 +14372,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14413,7 +14387,7 @@
         <v>102</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>82</v>
@@ -14422,7 +14396,7 @@
         <v>82</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>82</v>
@@ -14430,14 +14404,14 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>577</v>
+        <v>82</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -14459,12 +14433,14 @@
         <v>201</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="N101" s="2"/>
+        <v>586</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>587</v>
+      </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>82</v>
@@ -14513,7 +14489,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14528,7 +14504,7 @@
         <v>102</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>82</v>
@@ -14537,7 +14513,7 @@
         <v>82</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>82</v>
@@ -14545,14 +14521,14 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>584</v>
+        <v>82</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14571,16 +14547,18 @@
         <v>91</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>201</v>
+        <v>329</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
+      <c r="O102" t="s" s="2">
+        <v>594</v>
+      </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
       </c>
@@ -14592,7 +14570,7 @@
         <v>82</v>
       </c>
       <c r="T102" t="s" s="2">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="U102" t="s" s="2">
         <v>82</v>
@@ -14628,7 +14606,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14643,7 +14621,7 @@
         <v>102</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>589</v>
+        <v>456</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>82</v>
@@ -14652,7 +14630,7 @@
         <v>82</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>82</v>
@@ -14660,10 +14638,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14683,21 +14661,21 @@
         <v>82</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="O103" s="2"/>
+        <v>600</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" t="s" s="2">
+        <v>601</v>
+      </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
       </c>
@@ -14721,13 +14699,11 @@
         <v>82</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="Y103" s="2"/>
       <c r="Z103" t="s" s="2">
-        <v>82</v>
+        <v>602</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>82</v>
@@ -14745,7 +14721,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14760,16 +14736,16 @@
         <v>102</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>82</v>
+        <v>604</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>82</v>
@@ -14777,10 +14753,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14800,20 +14776,22 @@
         <v>82</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>329</v>
+        <v>607</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="N104" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>610</v>
+      </c>
       <c r="O104" t="s" s="2">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>82</v>
@@ -14826,7 +14804,7 @@
         <v>82</v>
       </c>
       <c r="T104" t="s" s="2">
-        <v>602</v>
+        <v>82</v>
       </c>
       <c r="U104" t="s" s="2">
         <v>82</v>
@@ -14862,7 +14840,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -14877,16 +14855,16 @@
         <v>102</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>463</v>
+        <v>612</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>82</v>
@@ -14894,10 +14872,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14908,7 +14886,7 @@
         <v>80</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>82</v>
@@ -14920,17 +14898,19 @@
         <v>82</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>225</v>
+        <v>615</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="N105" s="2"/>
+        <v>617</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>618</v>
+      </c>
       <c r="O105" t="s" s="2">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>82</v>
@@ -14955,11 +14935,13 @@
         <v>82</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="Y105" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z105" t="s" s="2">
-        <v>609</v>
+        <v>82</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>82</v>
@@ -14977,13 +14959,13 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>82</v>
@@ -14992,16 +14974,16 @@
         <v>102</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>611</v>
+        <v>205</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>82</v>
@@ -15009,10 +14991,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15023,7 +15005,7 @@
         <v>80</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>82</v>
@@ -15035,19 +15017,19 @@
         <v>82</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -15096,22 +15078,22 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>102</v>
+        <v>628</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>205</v>
@@ -15120,7 +15102,7 @@
         <v>82</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>620</v>
+        <v>82</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>82</v>
@@ -15128,10 +15110,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15142,7 +15124,7 @@
         <v>80</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>82</v>
@@ -15154,20 +15136,16 @@
         <v>82</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>622</v>
+        <v>201</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>623</v>
+        <v>202</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>626</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>82</v>
       </c>
@@ -15215,31 +15193,31 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>621</v>
+        <v>204</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>627</v>
+        <v>205</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>628</v>
+        <v>82</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
@@ -15247,14 +15225,14 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -15273,20 +15251,18 @@
         <v>82</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>630</v>
+        <v>135</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>631</v>
+        <v>208</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>632</v>
+        <v>209</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>634</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>82</v>
       </c>
@@ -15334,7 +15310,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>629</v>
+        <v>211</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15346,13 +15322,13 @@
         <v>82</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>635</v>
+        <v>141</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>636</v>
+        <v>205</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>82</v>
@@ -15366,42 +15342,46 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>82</v>
+        <v>633</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>201</v>
+        <v>135</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>202</v>
+        <v>634</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N109" s="2"/>
-      <c r="O109" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="P109" t="s" s="2">
         <v>82</v>
       </c>
@@ -15449,22 +15429,22 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>204</v>
+        <v>636</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>205</v>
+        <v>133</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>82</v>
@@ -15481,14 +15461,14 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -15507,18 +15487,18 @@
         <v>82</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>208</v>
+        <v>638</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O110" s="2"/>
+        <v>639</v>
+      </c>
+      <c r="N110" s="2"/>
+      <c r="O110" t="s" s="2">
+        <v>640</v>
+      </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
       </c>
@@ -15542,13 +15522,11 @@
         <v>82</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="Y110" s="2"/>
       <c r="Z110" t="s" s="2">
-        <v>82</v>
+        <v>641</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>82</v>
@@ -15566,7 +15544,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>211</v>
+        <v>637</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15578,19 +15556,19 @@
         <v>82</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK110" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="AL110" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AL110" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AM110" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>82</v>
+        <v>643</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
@@ -15598,45 +15576,43 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>640</v>
+        <v>82</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>135</v>
+        <v>394</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>646</v>
+      </c>
+      <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
-        <v>183</v>
+        <v>647</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>82</v>
@@ -15685,31 +15661,31 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>133</v>
+        <v>399</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>82</v>
+        <v>648</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>82</v>
@@ -15717,10 +15693,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15743,17 +15719,19 @@
         <v>82</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>225</v>
+        <v>459</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="N112" s="2"/>
+        <v>651</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>652</v>
+      </c>
       <c r="O112" t="s" s="2">
-        <v>647</v>
+        <v>463</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>82</v>
@@ -15778,11 +15756,13 @@
         <v>82</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="Y112" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z112" t="s" s="2">
-        <v>648</v>
+        <v>82</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>82</v>
@@ -15800,7 +15780,7 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -15815,7 +15795,7 @@
         <v>102</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>649</v>
+        <v>464</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>205</v>
@@ -15824,7 +15804,7 @@
         <v>82</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>82</v>
@@ -15832,10 +15812,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15858,17 +15838,17 @@
         <v>82</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>394</v>
+        <v>496</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
@@ -15917,7 +15897,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -15932,7 +15912,7 @@
         <v>102</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>399</v>
+        <v>501</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>205</v>
@@ -15941,7 +15921,7 @@
         <v>82</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>82</v>
@@ -15949,10 +15929,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15963,7 +15943,7 @@
         <v>80</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>82</v>
@@ -15975,19 +15955,17 @@
         <v>82</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>466</v>
+        <v>110</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>657</v>
+        <v>468</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>659</v>
-      </c>
+        <v>660</v>
+      </c>
+      <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
-        <v>470</v>
+        <v>661</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>82</v>
@@ -16012,13 +15990,13 @@
         <v>82</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>82</v>
+        <v>472</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>82</v>
+        <v>473</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>82</v>
@@ -16036,13 +16014,13 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>82</v>
@@ -16051,7 +16029,7 @@
         <v>102</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>205</v>
@@ -16060,7 +16038,7 @@
         <v>82</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>82</v>
@@ -16068,10 +16046,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16094,17 +16072,17 @@
         <v>82</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>503</v>
+        <v>337</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
@@ -16153,7 +16131,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16162,13 +16140,13 @@
         <v>90</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>82</v>
+        <v>667</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>508</v>
+        <v>668</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>205</v>
@@ -16177,7 +16155,7 @@
         <v>82</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>82</v>
@@ -16185,10 +16163,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16211,18 +16189,16 @@
         <v>82</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>110</v>
+        <v>329</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>475</v>
+        <v>671</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="N116" s="2"/>
-      <c r="O116" t="s" s="2">
-        <v>668</v>
-      </c>
+      <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
         <v>82</v>
       </c>
@@ -16246,13 +16222,13 @@
         <v>82</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>218</v>
+        <v>82</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>479</v>
+        <v>82</v>
       </c>
       <c r="Z116" t="s" s="2">
-        <v>480</v>
+        <v>82</v>
       </c>
       <c r="AA116" t="s" s="2">
         <v>82</v>
@@ -16270,7 +16246,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16285,7 +16261,7 @@
         <v>102</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>481</v>
+        <v>673</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>205</v>
@@ -16294,7 +16270,7 @@
         <v>82</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>669</v>
+        <v>82</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>82</v>
@@ -16302,10 +16278,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16316,7 +16292,7 @@
         <v>80</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>82</v>
@@ -16328,17 +16304,19 @@
         <v>82</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>337</v>
+        <v>623</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="N117" s="2"/>
+        <v>676</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>677</v>
+      </c>
       <c r="O117" t="s" s="2">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16387,31 +16365,31 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>674</v>
+        <v>82</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>205</v>
+        <v>680</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>676</v>
+        <v>82</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>82</v>
@@ -16419,10 +16397,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16445,13 +16423,13 @@
         <v>82</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>329</v>
+        <v>201</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>678</v>
+        <v>202</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>679</v>
+        <v>203</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -16502,7 +16480,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>677</v>
+        <v>204</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16514,13 +16492,13 @@
         <v>82</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>680</v>
+        <v>205</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>82</v>
@@ -16534,14 +16512,14 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
@@ -16560,20 +16538,18 @@
         <v>82</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>630</v>
+        <v>135</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>682</v>
+        <v>208</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>683</v>
+        <v>209</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="O119" t="s" s="2">
-        <v>685</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
         <v>82</v>
       </c>
@@ -16621,7 +16597,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>681</v>
+        <v>211</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -16633,13 +16609,13 @@
         <v>82</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>686</v>
+        <v>205</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>687</v>
+        <v>82</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>82</v>
@@ -16653,42 +16629,46 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
-        <v>82</v>
+        <v>633</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I120" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>201</v>
+        <v>135</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>202</v>
+        <v>634</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N120" s="2"/>
-      <c r="O120" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O120" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="P120" t="s" s="2">
         <v>82</v>
       </c>
@@ -16736,22 +16716,22 @@
         <v>82</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>204</v>
+        <v>636</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI120" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>205</v>
+        <v>133</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>82</v>
@@ -16768,21 +16748,21 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>82</v>
@@ -16794,18 +16774,20 @@
         <v>82</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>208</v>
+        <v>685</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>209</v>
+        <v>686</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O121" s="2"/>
+        <v>687</v>
+      </c>
+      <c r="O121" t="s" s="2">
+        <v>688</v>
+      </c>
       <c r="P121" t="s" s="2">
         <v>82</v>
       </c>
@@ -16829,13 +16811,13 @@
         <v>82</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>82</v>
@@ -16853,31 +16835,31 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>211</v>
+        <v>684</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>205</v>
+        <v>689</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>82</v>
+        <v>690</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>82</v>
+        <v>691</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>82</v>
@@ -16885,45 +16867,45 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>640</v>
+        <v>82</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H122" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>135</v>
+        <v>290</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>641</v>
+        <v>693</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>642</v>
+        <v>694</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>182</v>
+        <v>695</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>183</v>
+        <v>696</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>82</v>
@@ -16972,31 +16954,31 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>643</v>
+        <v>692</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI122" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>133</v>
+        <v>697</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>82</v>
+        <v>698</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>82</v>
+        <v>699</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>82</v>
@@ -17004,21 +16986,21 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>82</v>
+        <v>701</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>82</v>
@@ -17030,20 +17012,18 @@
         <v>82</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>225</v>
+        <v>702</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>692</v>
+        <v>703</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>693</v>
+        <v>704</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>694</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>695</v>
-      </c>
+        <v>705</v>
+      </c>
+      <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
         <v>82</v>
       </c>
@@ -17067,13 +17047,13 @@
         <v>82</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="Z123" t="s" s="2">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="AA123" t="s" s="2">
         <v>82</v>
@@ -17091,13 +17071,13 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>82</v>
@@ -17106,16 +17086,16 @@
         <v>102</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>697</v>
+        <v>205</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>82</v>
@@ -17123,10 +17103,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17146,22 +17126,22 @@
         <v>82</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>290</v>
+        <v>337</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="O124" t="s" s="2">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>82</v>
@@ -17210,7 +17190,7 @@
         <v>82</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
@@ -17225,16 +17205,16 @@
         <v>102</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>704</v>
+        <v>668</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>706</v>
+        <v>82</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>82</v>
@@ -17242,14 +17222,14 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>708</v>
+        <v>82</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
@@ -17262,24 +17242,26 @@
         <v>82</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>709</v>
+        <v>623</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>712</v>
-      </c>
-      <c r="O125" s="2"/>
+        <v>717</v>
+      </c>
+      <c r="O125" t="s" s="2">
+        <v>718</v>
+      </c>
       <c r="P125" t="s" s="2">
         <v>82</v>
       </c>
@@ -17327,7 +17309,7 @@
         <v>82</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>80</v>
@@ -17342,7 +17324,7 @@
         <v>102</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>205</v>
@@ -17351,7 +17333,7 @@
         <v>82</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>714</v>
+        <v>82</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>82</v>
@@ -17359,10 +17341,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17382,23 +17364,19 @@
         <v>82</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>337</v>
+        <v>201</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>716</v>
+        <v>202</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>717</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>718</v>
-      </c>
-      <c r="O126" t="s" s="2">
-        <v>719</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N126" s="2"/>
+      <c r="O126" s="2"/>
       <c r="P126" t="s" s="2">
         <v>82</v>
       </c>
@@ -17446,7 +17424,7 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>715</v>
+        <v>204</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -17458,13 +17436,13 @@
         <v>82</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>675</v>
+        <v>205</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>720</v>
+        <v>82</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>82</v>
@@ -17485,7 +17463,7 @@
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
@@ -17498,26 +17476,24 @@
         <v>82</v>
       </c>
       <c r="I127" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>630</v>
+        <v>135</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>722</v>
+        <v>208</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>723</v>
+        <v>209</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>724</v>
-      </c>
-      <c r="O127" t="s" s="2">
-        <v>725</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
         <v>82</v>
       </c>
@@ -17565,7 +17541,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>721</v>
+        <v>211</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -17577,13 +17553,13 @@
         <v>82</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>726</v>
+        <v>205</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>82</v>
@@ -17597,42 +17573,46 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
-        <v>82</v>
+        <v>633</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G128" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H128" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I128" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>201</v>
+        <v>135</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>202</v>
+        <v>634</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N128" s="2"/>
-      <c r="O128" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="N128" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O128" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="P128" t="s" s="2">
         <v>82</v>
       </c>
@@ -17680,22 +17660,22 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>204</v>
+        <v>636</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH128" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI128" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>205</v>
+        <v>133</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>82</v>
@@ -17712,21 +17692,21 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H129" t="s" s="2">
         <v>82</v>
@@ -17735,19 +17715,19 @@
         <v>82</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>135</v>
+        <v>724</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>208</v>
+        <v>725</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>209</v>
+        <v>726</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>182</v>
+        <v>727</v>
       </c>
       <c r="O129" s="2"/>
       <c r="P129" t="s" s="2">
@@ -17797,31 +17777,31 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>211</v>
+        <v>723</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI129" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK129" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AL129" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AL129" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AM129" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>82</v>
+        <v>728</v>
       </c>
       <c r="AO129" t="s" s="2">
         <v>82</v>
@@ -17836,39 +17816,35 @@
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
-        <v>640</v>
+        <v>82</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G130" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H130" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I130" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J130" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>641</v>
+        <v>730</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>731</v>
+      </c>
+      <c r="N130" s="2"/>
+      <c r="O130" s="2"/>
       <c r="P130" t="s" s="2">
         <v>82</v>
       </c>
@@ -17892,13 +17868,13 @@
         <v>82</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>82</v>
+        <v>731</v>
       </c>
       <c r="Z130" t="s" s="2">
-        <v>82</v>
+        <v>732</v>
       </c>
       <c r="AA130" t="s" s="2">
         <v>82</v>
@@ -17916,25 +17892,25 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>643</v>
+        <v>729</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH130" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI130" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>133</v>
+        <v>733</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>82</v>
@@ -17943,243 +17919,11 @@
         <v>82</v>
       </c>
       <c r="AO130" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="131" hidden="true">
-      <c r="A131" t="s" s="2">
-        <v>730</v>
-      </c>
-      <c r="B131" t="s" s="2">
-        <v>730</v>
-      </c>
-      <c r="C131" s="2"/>
-      <c r="D131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E131" s="2"/>
-      <c r="F131" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G131" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J131" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K131" t="s" s="2">
-        <v>731</v>
-      </c>
-      <c r="L131" t="s" s="2">
-        <v>732</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>733</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>734</v>
-      </c>
-      <c r="O131" s="2"/>
-      <c r="P131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q131" s="2"/>
-      <c r="R131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF131" t="s" s="2">
-        <v>730</v>
-      </c>
-      <c r="AG131" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH131" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ131" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK131" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AL131" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AM131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN131" t="s" s="2">
-        <v>735</v>
-      </c>
-      <c r="AO131" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="132" hidden="true">
-      <c r="A132" t="s" s="2">
-        <v>736</v>
-      </c>
-      <c r="B132" t="s" s="2">
-        <v>736</v>
-      </c>
-      <c r="C132" s="2"/>
-      <c r="D132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E132" s="2"/>
-      <c r="F132" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G132" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J132" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K132" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="L132" t="s" s="2">
-        <v>737</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>738</v>
-      </c>
-      <c r="N132" s="2"/>
-      <c r="O132" s="2"/>
-      <c r="P132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q132" s="2"/>
-      <c r="R132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X132" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="Y132" t="s" s="2">
-        <v>738</v>
-      </c>
-      <c r="Z132" t="s" s="2">
-        <v>739</v>
-      </c>
-      <c r="AA132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF132" t="s" s="2">
-        <v>736</v>
-      </c>
-      <c r="AG132" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH132" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ132" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK132" t="s" s="2">
-        <v>740</v>
-      </c>
-      <c r="AL132" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AM132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO132" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO132">
+  <autoFilter ref="A1:AO130">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -18189,7 +17933,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI131">
+  <conditionalFormatting sqref="A2:AI129">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T01:53:15+00:00</t>
+    <t>2025-10-30T02:40:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T02:40:54+00:00</t>
+    <t>2025-10-30T03:27:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T03:27:09+00:00</t>
+    <t>2025-10-30T05:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T05:39:55+00:00</t>
+    <t>2025-10-31T16:32:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -279,7 +279,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}rs-name-given-order:Index 0 of name.given is the patient's first name; index 1 (if present) is the patient's middle name. This is a modelling convention; follow it when populating the given array. {name.given.count() = 2}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -1190,6 +1190,7 @@
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
   &lt;system value="http://snomed.info/sct"/&gt;
+  &lt;version value="http://snomed.info/sct/900000000000207008/version/20241001"/&gt;
   &lt;code value="184107009"/&gt;
   &lt;display value="Patient hospital number"/&gt;
 &lt;/valueCoding&gt;</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-31T16:32:57+00:00</t>
+    <t>2025-11-01T02:32:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T02:32:07+00:00</t>
+    <t>2025-11-01T03:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:00:46+00:00</t>
+    <t>2025-11-01T03:08:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:08:11+00:00</t>
+    <t>2025-11-01T11:24:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T11:24:55+00:00</t>
+    <t>2025-11-03T06:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T06:02:43+00:00</t>
+    <t>2025-11-03T09:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T09:29:05+00:00</t>
+    <t>2025-11-04T05:19:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T05:19:01+00:00</t>
+    <t>2025-11-05T05:21:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T05:21:38+00:00</t>
+    <t>2025-11-06T11:55:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T11:55:20+00:00</t>
+    <t>2025-11-07T10:27:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T10:27:49+00:00</t>
+    <t>2025-11-08T13:50:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-08T13:50:02+00:00</t>
+    <t>2025-11-09T01:35:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T01:35:45+00:00</t>
+    <t>2025-11-09T06:04:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T06:04:07+00:00</t>
+    <t>2025-11-09T07:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T07:15:59+00:00</t>
+    <t>2025-11-09T10:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T10:56:11+00:00</t>
+    <t>2025-11-09T12:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:21:17+00:00</t>
+    <t>2025-11-09T12:30:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:30:11+00:00</t>
+    <t>2025-11-12T06:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:38:24+00:00</t>
+    <t>2025-11-12T06:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:39:32+00:00</t>
+    <t>2025-11-12T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T08:01:17+00:00</t>
+    <t>2025-11-13T05:16:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:16:01+00:00</t>
+    <t>2025-11-13T05:42:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:42:41+00:00</t>
+    <t>2025-11-13T06:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:09:51+00:00</t>
+    <t>2025-11-13T06:07:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:07:07+00:00</t>
+    <t>2025-11-14T06:33:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$130</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$126</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4870" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4721" uniqueCount="730">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T06:33:14+00:00</t>
+    <t>2025-11-16T14:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1179,27 +1179,10 @@
     <t>Patient.identifier:patientHospitalID.type</t>
   </si>
   <si>
-    <t>Patient.identifier:patientHospitalID.type.id</t>
-  </si>
-  <si>
-    <t>Patient.identifier:patientHospitalID.type.extension</t>
-  </si>
-  <si>
-    <t>Patient.identifier:patientHospitalID.type.coding</t>
-  </si>
-  <si>
-    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="http://snomed.info/sct"/&gt;
-  &lt;version value="http://snomed.info/sct/900000000000207008/version/20241001"/&gt;
-  &lt;code value="184107009"/&gt;
-  &lt;display value="Patient hospital number"/&gt;
-&lt;/valueCoding&gt;</t>
-  </si>
-  <si>
-    <t>Patient.identifier:patientHospitalID.type.text</t>
-  </si>
-  <si>
     <t>Patient.identifier:patientHospitalID.system</t>
+  </si>
+  <si>
+    <t>http://hospitals.gov.ph/</t>
   </si>
   <si>
     <t>Patient.identifier:patientHospitalID.value</t>
@@ -2620,7 +2603,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO130"/>
+  <dimension ref="A1:AO126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -10069,7 +10052,7 @@
         <v>376</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>236</v>
+        <v>308</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10077,7 +10060,7 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>90</v>
@@ -10089,19 +10072,23 @@
         <v>82</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>201</v>
+        <v>104</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>202</v>
+        <v>309</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
       </c>
@@ -10110,10 +10097,10 @@
         <v>82</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>82</v>
+        <v>377</v>
       </c>
       <c r="T64" t="s" s="2">
-        <v>82</v>
+        <v>314</v>
       </c>
       <c r="U64" t="s" s="2">
         <v>82</v>
@@ -10149,7 +10136,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>204</v>
+        <v>315</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -10161,10 +10148,10 @@
         <v>82</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>205</v>
+        <v>316</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>82</v>
@@ -10173,7 +10160,7 @@
         <v>82</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>82</v>
+        <v>317</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -10181,21 +10168,21 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>238</v>
+        <v>319</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>82</v>
@@ -10204,19 +10191,19 @@
         <v>82</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>135</v>
+        <v>201</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>208</v>
+        <v>320</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>209</v>
+        <v>321</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>182</v>
+        <v>322</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -10230,7 +10217,7 @@
         <v>82</v>
       </c>
       <c r="T65" t="s" s="2">
-        <v>82</v>
+        <v>323</v>
       </c>
       <c r="U65" t="s" s="2">
         <v>82</v>
@@ -10254,34 +10241,34 @@
         <v>82</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>211</v>
+        <v>324</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>205</v>
+        <v>325</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>82</v>
@@ -10290,7 +10277,7 @@
         <v>82</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>82</v>
+        <v>326</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -10298,10 +10285,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>240</v>
+        <v>328</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10312,7 +10299,7 @@
         <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>82</v>
@@ -10324,20 +10311,16 @@
         <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>241</v>
+        <v>329</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>242</v>
+        <v>330</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>82</v>
       </c>
@@ -10346,7 +10329,7 @@
         <v>82</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>379</v>
+        <v>82</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>82</v>
@@ -10385,13 +10368,13 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>82</v>
@@ -10400,7 +10383,7 @@
         <v>102</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>247</v>
+        <v>333</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>82</v>
@@ -10409,7 +10392,7 @@
         <v>82</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>248</v>
+        <v>334</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
@@ -10420,7 +10403,7 @@
         <v>380</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10443,20 +10426,18 @@
         <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>201</v>
+        <v>337</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>82</v>
       </c>
@@ -10504,7 +10485,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10519,7 +10500,7 @@
         <v>102</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>82</v>
@@ -10528,7 +10509,7 @@
         <v>82</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10539,7 +10520,7 @@
         <v>381</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>308</v>
+        <v>381</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10556,30 +10537,32 @@
         <v>82</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>104</v>
+        <v>290</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>309</v>
+        <v>382</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>310</v>
+        <v>383</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>311</v>
+        <v>384</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>312</v>
+        <v>385</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="R68" t="s" s="2">
         <v>82</v>
       </c>
@@ -10587,7 +10570,7 @@
         <v>82</v>
       </c>
       <c r="T68" t="s" s="2">
-        <v>314</v>
+        <v>82</v>
       </c>
       <c r="U68" t="s" s="2">
         <v>82</v>
@@ -10623,7 +10606,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>315</v>
+        <v>381</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10638,27 +10621,27 @@
         <v>102</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>316</v>
+        <v>387</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>82</v>
+        <v>388</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>317</v>
+        <v>82</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>319</v>
+        <v>389</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10666,13 +10649,13 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>82</v>
@@ -10681,18 +10664,20 @@
         <v>91</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>201</v>
+        <v>390</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>320</v>
+        <v>391</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>321</v>
+        <v>392</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="O69" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>82</v>
       </c>
@@ -10704,7 +10689,7 @@
         <v>82</v>
       </c>
       <c r="T69" t="s" s="2">
-        <v>323</v>
+        <v>82</v>
       </c>
       <c r="U69" t="s" s="2">
         <v>82</v>
@@ -10740,13 +10725,13 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>324</v>
+        <v>389</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>82</v>
@@ -10755,16 +10740,16 @@
         <v>102</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>325</v>
+        <v>395</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>82</v>
+        <v>396</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>326</v>
+        <v>397</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10772,10 +10757,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>328</v>
+        <v>398</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10795,16 +10780,16 @@
         <v>82</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>329</v>
+        <v>201</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>330</v>
+        <v>202</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>331</v>
+        <v>203</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10855,7 +10840,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>332</v>
+        <v>204</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10867,10 +10852,10 @@
         <v>82</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>333</v>
+        <v>205</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>82</v>
@@ -10879,7 +10864,7 @@
         <v>82</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>334</v>
+        <v>82</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10887,21 +10872,21 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>336</v>
+        <v>399</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>82</v>
@@ -10910,19 +10895,19 @@
         <v>82</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>337</v>
+        <v>135</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>338</v>
+        <v>208</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>339</v>
+        <v>209</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>340</v>
+        <v>182</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10960,34 +10945,34 @@
         <v>82</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>82</v>
+        <v>210</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>341</v>
+        <v>211</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>342</v>
+        <v>205</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>82</v>
@@ -10996,7 +10981,7 @@
         <v>82</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>343</v>
+        <v>82</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -11004,10 +10989,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11030,26 +11015,24 @@
         <v>91</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>290</v>
+        <v>110</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q72" t="s" s="2">
-        <v>390</v>
-      </c>
+      <c r="Q72" s="2"/>
       <c r="R72" t="s" s="2">
         <v>82</v>
       </c>
@@ -11069,13 +11052,13 @@
         <v>82</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>82</v>
+        <v>405</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>82</v>
+        <v>406</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>82</v>
@@ -11093,7 +11076,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11108,27 +11091,27 @@
         <v>102</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>392</v>
+        <v>82</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>82</v>
+        <v>409</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11136,13 +11119,13 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G73" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G73" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H73" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>82</v>
@@ -11151,19 +11134,19 @@
         <v>91</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>394</v>
+        <v>201</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11212,13 +11195,13 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>82</v>
@@ -11227,31 +11210,31 @@
         <v>102</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>400</v>
+        <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>82</v>
+        <v>419</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -11261,24 +11244,26 @@
         <v>90</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>201</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>202</v>
+        <v>420</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11327,7 +11312,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>204</v>
+        <v>423</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11339,10 +11324,10 @@
         <v>82</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>205</v>
+        <v>424</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>82</v>
@@ -11351,52 +11336,54 @@
         <v>82</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>82</v>
+        <v>425</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>179</v>
+        <v>427</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>135</v>
+        <v>201</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>208</v>
+        <v>428</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>209</v>
+        <v>429</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O75" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
       </c>
@@ -11432,19 +11419,19 @@
         <v>82</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>211</v>
+        <v>432</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11456,10 +11443,10 @@
         <v>82</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>205</v>
+        <v>433</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>82</v>
@@ -11468,7 +11455,7 @@
         <v>82</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>82</v>
+        <v>434</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11476,10 +11463,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>404</v>
+        <v>435</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>404</v>
+        <v>435</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11490,32 +11477,28 @@
         <v>80</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J76" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>405</v>
+        <v>436</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>408</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>82</v>
       </c>
@@ -11539,13 +11522,13 @@
         <v>82</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>218</v>
+        <v>82</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>409</v>
+        <v>82</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>410</v>
+        <v>82</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>82</v>
@@ -11563,13 +11546,13 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>411</v>
+        <v>438</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>82</v>
@@ -11578,7 +11561,7 @@
         <v>102</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>412</v>
+        <v>439</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>82</v>
@@ -11587,7 +11570,7 @@
         <v>82</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>413</v>
+        <v>440</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>82</v>
@@ -11595,10 +11578,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>414</v>
+        <v>441</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>414</v>
+        <v>441</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11609,7 +11592,7 @@
         <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>82</v>
@@ -11624,17 +11607,13 @@
         <v>201</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>415</v>
+        <v>442</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>82</v>
       </c>
@@ -11682,13 +11661,13 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>82</v>
@@ -11697,7 +11676,7 @@
         <v>102</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>82</v>
@@ -11706,22 +11685,22 @@
         <v>82</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>423</v>
+        <v>82</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11731,7 +11710,7 @@
         <v>90</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>82</v>
@@ -11740,18 +11719,18 @@
         <v>91</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>201</v>
+        <v>329</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="O78" s="2"/>
+        <v>449</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>82</v>
       </c>
@@ -11799,7 +11778,7 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>427</v>
+        <v>451</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11814,7 +11793,7 @@
         <v>102</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>82</v>
@@ -11823,7 +11802,7 @@
         <v>82</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>82</v>
@@ -11831,18 +11810,18 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>430</v>
+        <v>454</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>430</v>
+        <v>454</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>431</v>
+        <v>82</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>81</v>
@@ -11857,19 +11836,19 @@
         <v>91</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>201</v>
+        <v>455</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>432</v>
+        <v>456</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>435</v>
+        <v>459</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11918,7 +11897,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11933,16 +11912,16 @@
         <v>102</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>82</v>
+        <v>461</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
@@ -11950,10 +11929,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>439</v>
+        <v>463</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>439</v>
+        <v>463</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11964,7 +11943,7 @@
         <v>80</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>82</v>
@@ -11976,16 +11955,20 @@
         <v>91</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>82</v>
       </c>
@@ -12009,13 +11992,13 @@
         <v>82</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>82</v>
+        <v>468</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>82</v>
+        <v>469</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>82</v>
@@ -12033,13 +12016,13 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>82</v>
@@ -12048,27 +12031,27 @@
         <v>102</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>82</v>
+        <v>471</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>444</v>
+        <v>472</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12079,10 +12062,10 @@
         <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>82</v>
@@ -12091,16 +12074,20 @@
         <v>91</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>201</v>
+        <v>474</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>446</v>
+        <v>475</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>82</v>
       </c>
@@ -12148,13 +12135,13 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>448</v>
+        <v>473</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>82</v>
@@ -12163,27 +12150,27 @@
         <v>102</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>449</v>
+        <v>479</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>82</v>
+        <v>480</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>450</v>
+        <v>481</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>82</v>
+        <v>482</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>451</v>
+        <v>483</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>451</v>
+        <v>483</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12200,23 +12187,25 @@
         <v>82</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J82" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>329</v>
+        <v>484</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>452</v>
+        <v>485</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>486</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>487</v>
+      </c>
       <c r="O82" t="s" s="2">
-        <v>454</v>
+        <v>488</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>82</v>
@@ -12265,7 +12254,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>455</v>
+        <v>483</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12280,16 +12269,16 @@
         <v>102</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>456</v>
+        <v>489</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>457</v>
+        <v>490</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
@@ -12297,10 +12286,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>458</v>
+        <v>491</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>458</v>
+        <v>491</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12323,19 +12312,19 @@
         <v>91</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>459</v>
+        <v>492</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>460</v>
+        <v>493</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>461</v>
+        <v>494</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>462</v>
+        <v>495</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>463</v>
+        <v>496</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>82</v>
@@ -12384,7 +12373,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>458</v>
+        <v>491</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12399,16 +12388,16 @@
         <v>102</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>464</v>
+        <v>497</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>465</v>
+        <v>498</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>466</v>
+        <v>499</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12416,10 +12405,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12439,23 +12428,19 @@
         <v>82</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>468</v>
+        <v>202</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>82</v>
       </c>
@@ -12479,13 +12464,13 @@
         <v>82</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>218</v>
+        <v>82</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>472</v>
+        <v>82</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>473</v>
+        <v>82</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>82</v>
@@ -12503,7 +12488,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>467</v>
+        <v>204</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12515,30 +12500,30 @@
         <v>82</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>474</v>
+        <v>205</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>475</v>
+        <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>476</v>
+        <v>82</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>477</v>
+        <v>501</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>477</v>
+        <v>501</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12549,7 +12534,7 @@
         <v>80</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>91</v>
@@ -12558,23 +12543,19 @@
         <v>82</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>478</v>
+        <v>135</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>479</v>
+        <v>136</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>482</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>82</v>
       </c>
@@ -12610,56 +12591,58 @@
         <v>82</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="AC85" t="s" s="2">
-        <v>82</v>
+        <v>210</v>
       </c>
       <c r="AD85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>477</v>
+        <v>211</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>483</v>
+        <v>82</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>484</v>
+        <v>82</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>485</v>
+        <v>82</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>486</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="C86" s="2"/>
+        <v>501</v>
+      </c>
+      <c r="C86" t="s" s="2">
+        <v>503</v>
+      </c>
       <c r="D86" t="s" s="2">
         <v>82</v>
       </c>
@@ -12668,32 +12651,28 @@
         <v>80</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>489</v>
+        <v>136</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>492</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>82</v>
       </c>
@@ -12741,44 +12720,46 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>487</v>
+        <v>211</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>493</v>
+        <v>82</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>494</v>
+        <v>82</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="C87" s="2"/>
+        <v>501</v>
+      </c>
+      <c r="C87" t="s" s="2">
+        <v>507</v>
+      </c>
       <c r="D87" t="s" s="2">
         <v>82</v>
       </c>
@@ -12790,29 +12771,25 @@
         <v>81</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>500</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>82</v>
       </c>
@@ -12860,7 +12837,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>495</v>
+        <v>211</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12872,19 +12849,19 @@
         <v>82</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>501</v>
+        <v>82</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>502</v>
+        <v>82</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>503</v>
+        <v>82</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -12892,12 +12869,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="C88" s="2"/>
+        <v>501</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>512</v>
+      </c>
       <c r="D88" t="s" s="2">
         <v>82</v>
       </c>
@@ -12906,7 +12885,7 @@
         <v>80</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>82</v>
@@ -12918,13 +12897,13 @@
         <v>82</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>201</v>
+        <v>513</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>202</v>
+        <v>136</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>203</v>
+        <v>514</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12975,22 +12954,22 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>82</v>
@@ -13007,10 +12986,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13021,28 +13000,32 @@
         <v>80</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I89" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I89" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J89" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>136</v>
+        <v>516</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
+        <v>517</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>519</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>82</v>
       </c>
@@ -13054,7 +13037,7 @@
         <v>82</v>
       </c>
       <c r="T89" t="s" s="2">
-        <v>82</v>
+        <v>520</v>
       </c>
       <c r="U89" t="s" s="2">
         <v>82</v>
@@ -13066,46 +13049,46 @@
         <v>82</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>82</v>
+        <v>521</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>82</v>
+        <v>522</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="AD89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>211</v>
+        <v>523</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>82</v>
+        <v>408</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>82</v>
@@ -13114,7 +13097,7 @@
         <v>82</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>82</v>
+        <v>524</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>82</v>
@@ -13122,14 +13105,12 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="C90" t="s" s="2">
-        <v>507</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
         <v>82</v>
       </c>
@@ -13138,7 +13119,7 @@
         <v>80</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>82</v>
@@ -13147,18 +13128,20 @@
         <v>82</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>508</v>
+        <v>110</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>136</v>
+        <v>526</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N90" s="2"/>
+        <v>527</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>528</v>
+      </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>82</v>
@@ -13171,7 +13154,7 @@
         <v>82</v>
       </c>
       <c r="T90" t="s" s="2">
-        <v>82</v>
+        <v>529</v>
       </c>
       <c r="U90" t="s" s="2">
         <v>82</v>
@@ -13183,13 +13166,13 @@
         <v>82</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>82</v>
+        <v>530</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>82</v>
+        <v>531</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>82</v>
@@ -13207,22 +13190,22 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>211</v>
+        <v>532</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>82</v>
+        <v>408</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>82</v>
@@ -13231,7 +13214,7 @@
         <v>82</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>82</v>
+        <v>533</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>82</v>
@@ -13239,14 +13222,12 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>510</v>
+        <v>534</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="C91" t="s" s="2">
-        <v>511</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
         <v>82</v>
       </c>
@@ -13255,7 +13236,7 @@
         <v>80</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>82</v>
@@ -13264,19 +13245,23 @@
         <v>82</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>512</v>
+        <v>201</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>513</v>
+        <v>535</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
+        <v>536</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
       </c>
@@ -13288,7 +13273,7 @@
         <v>82</v>
       </c>
       <c r="T91" t="s" s="2">
-        <v>82</v>
+        <v>538</v>
       </c>
       <c r="U91" t="s" s="2">
         <v>82</v>
@@ -13324,22 +13309,22 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>211</v>
+        <v>539</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>82</v>
+        <v>416</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>82</v>
@@ -13348,22 +13333,20 @@
         <v>82</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>82</v>
+        <v>540</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="92" hidden="true">
+    <row r="92">
       <c r="A92" t="s" s="2">
-        <v>515</v>
+        <v>541</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="C92" t="s" s="2">
-        <v>516</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
         <v>82</v>
       </c>
@@ -13375,22 +13358,22 @@
         <v>81</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>517</v>
+        <v>201</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>136</v>
+        <v>542</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>518</v>
+        <v>543</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13405,7 +13388,7 @@
         <v>82</v>
       </c>
       <c r="T92" t="s" s="2">
-        <v>82</v>
+        <v>544</v>
       </c>
       <c r="U92" t="s" s="2">
         <v>82</v>
@@ -13441,7 +13424,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>211</v>
+        <v>545</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13453,10 +13436,10 @@
         <v>82</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>82</v>
+        <v>546</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>82</v>
@@ -13465,7 +13448,7 @@
         <v>82</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>82</v>
+        <v>547</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>82</v>
@@ -13473,14 +13456,14 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>519</v>
+        <v>548</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>519</v>
+        <v>548</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>82</v>
+        <v>549</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -13493,26 +13476,22 @@
         <v>82</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J93" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>520</v>
+        <v>550</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>523</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>82</v>
       </c>
@@ -13524,7 +13503,7 @@
         <v>82</v>
       </c>
       <c r="T93" t="s" s="2">
-        <v>524</v>
+        <v>552</v>
       </c>
       <c r="U93" t="s" s="2">
         <v>82</v>
@@ -13536,13 +13515,13 @@
         <v>82</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>218</v>
+        <v>82</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>525</v>
+        <v>82</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>526</v>
+        <v>82</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>82</v>
@@ -13560,7 +13539,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>527</v>
+        <v>553</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13575,7 +13554,7 @@
         <v>102</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>412</v>
+        <v>554</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>82</v>
@@ -13584,7 +13563,7 @@
         <v>82</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>528</v>
+        <v>555</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>82</v>
@@ -13592,14 +13571,14 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>529</v>
+        <v>556</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>529</v>
+        <v>556</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>82</v>
+        <v>557</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13618,16 +13597,16 @@
         <v>91</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>530</v>
+        <v>558</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>531</v>
+        <v>559</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>532</v>
+        <v>560</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13641,7 +13620,7 @@
         <v>82</v>
       </c>
       <c r="T94" t="s" s="2">
-        <v>533</v>
+        <v>561</v>
       </c>
       <c r="U94" t="s" s="2">
         <v>82</v>
@@ -13653,13 +13632,13 @@
         <v>82</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>218</v>
+        <v>82</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>534</v>
+        <v>82</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>535</v>
+        <v>82</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>82</v>
@@ -13677,7 +13656,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>536</v>
+        <v>562</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13692,7 +13671,7 @@
         <v>102</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>412</v>
+        <v>563</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>82</v>
@@ -13701,7 +13680,7 @@
         <v>82</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>537</v>
+        <v>564</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>82</v>
@@ -13709,14 +13688,14 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>538</v>
+        <v>565</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>538</v>
+        <v>565</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>82</v>
+        <v>566</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13738,17 +13717,13 @@
         <v>201</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>539</v>
+        <v>567</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>82</v>
       </c>
@@ -13760,7 +13735,7 @@
         <v>82</v>
       </c>
       <c r="T95" t="s" s="2">
-        <v>542</v>
+        <v>82</v>
       </c>
       <c r="U95" t="s" s="2">
         <v>82</v>
@@ -13796,7 +13771,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>543</v>
+        <v>569</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13811,7 +13786,7 @@
         <v>102</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>420</v>
+        <v>570</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>82</v>
@@ -13820,32 +13795,32 @@
         <v>82</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>545</v>
+        <v>572</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>545</v>
+        <v>572</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>82</v>
+        <v>573</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>82</v>
@@ -13857,10 +13832,10 @@
         <v>201</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>546</v>
+        <v>574</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>547</v>
+        <v>575</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13875,7 +13850,7 @@
         <v>82</v>
       </c>
       <c r="T96" t="s" s="2">
-        <v>548</v>
+        <v>576</v>
       </c>
       <c r="U96" t="s" s="2">
         <v>82</v>
@@ -13911,13 +13886,13 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>549</v>
+        <v>577</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>82</v>
@@ -13926,7 +13901,7 @@
         <v>102</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>550</v>
+        <v>578</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>82</v>
@@ -13935,7 +13910,7 @@
         <v>82</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>551</v>
+        <v>579</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
@@ -13943,14 +13918,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>552</v>
+        <v>580</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>552</v>
+        <v>580</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>553</v>
+        <v>82</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13972,12 +13947,14 @@
         <v>201</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>554</v>
+        <v>581</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="N97" s="2"/>
+        <v>582</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>583</v>
+      </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>82</v>
@@ -13990,7 +13967,7 @@
         <v>82</v>
       </c>
       <c r="T97" t="s" s="2">
-        <v>556</v>
+        <v>82</v>
       </c>
       <c r="U97" t="s" s="2">
         <v>82</v>
@@ -14026,7 +14003,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>557</v>
+        <v>584</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14041,7 +14018,7 @@
         <v>102</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>558</v>
+        <v>585</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>82</v>
@@ -14050,7 +14027,7 @@
         <v>82</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>559</v>
+        <v>586</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
@@ -14058,14 +14035,14 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>560</v>
+        <v>587</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>560</v>
+        <v>587</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>561</v>
+        <v>82</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -14084,18 +14061,18 @@
         <v>91</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>201</v>
+        <v>329</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>562</v>
+        <v>588</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="O98" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>590</v>
+      </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
       </c>
@@ -14107,7 +14084,7 @@
         <v>82</v>
       </c>
       <c r="T98" t="s" s="2">
-        <v>565</v>
+        <v>591</v>
       </c>
       <c r="U98" t="s" s="2">
         <v>82</v>
@@ -14143,7 +14120,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>566</v>
+        <v>592</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14158,7 +14135,7 @@
         <v>102</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>567</v>
+        <v>452</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>82</v>
@@ -14167,7 +14144,7 @@
         <v>82</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>568</v>
+        <v>593</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
@@ -14175,14 +14152,14 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>569</v>
+        <v>594</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>569</v>
+        <v>594</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>570</v>
+        <v>82</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -14198,19 +14175,21 @@
         <v>82</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>571</v>
+        <v>595</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>572</v>
+        <v>596</v>
       </c>
       <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>597</v>
+      </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
       </c>
@@ -14234,13 +14213,11 @@
         <v>82</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="Y99" s="2"/>
       <c r="Z99" t="s" s="2">
-        <v>82</v>
+        <v>598</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>82</v>
@@ -14258,7 +14235,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>573</v>
+        <v>594</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14273,16 +14250,16 @@
         <v>102</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>574</v>
+        <v>599</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>82</v>
+        <v>600</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>575</v>
+        <v>601</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
@@ -14290,14 +14267,14 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>577</v>
+        <v>82</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
@@ -14313,19 +14290,23 @@
         <v>82</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>201</v>
+        <v>603</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>578</v>
+        <v>604</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
+        <v>605</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>607</v>
+      </c>
       <c r="P100" t="s" s="2">
         <v>82</v>
       </c>
@@ -14337,7 +14318,7 @@
         <v>82</v>
       </c>
       <c r="T100" t="s" s="2">
-        <v>580</v>
+        <v>82</v>
       </c>
       <c r="U100" t="s" s="2">
         <v>82</v>
@@ -14373,7 +14354,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>581</v>
+        <v>602</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14388,16 +14369,16 @@
         <v>102</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>582</v>
+        <v>608</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>583</v>
+        <v>609</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>82</v>
@@ -14405,10 +14386,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>584</v>
+        <v>610</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>584</v>
+        <v>610</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14419,7 +14400,7 @@
         <v>80</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>82</v>
@@ -14428,21 +14409,23 @@
         <v>82</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>201</v>
+        <v>611</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>585</v>
+        <v>612</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>586</v>
+        <v>613</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="O101" s="2"/>
+        <v>614</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>615</v>
+      </c>
       <c r="P101" t="s" s="2">
         <v>82</v>
       </c>
@@ -14490,13 +14473,13 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>588</v>
+        <v>610</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>82</v>
@@ -14505,16 +14488,16 @@
         <v>102</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>589</v>
+        <v>616</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>590</v>
+        <v>617</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>82</v>
@@ -14522,10 +14505,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>591</v>
+        <v>618</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>591</v>
+        <v>618</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14536,7 +14519,7 @@
         <v>80</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>82</v>
@@ -14545,20 +14528,22 @@
         <v>82</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>329</v>
+        <v>619</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>592</v>
+        <v>620</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="N102" s="2"/>
+        <v>621</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>622</v>
+      </c>
       <c r="O102" t="s" s="2">
-        <v>594</v>
+        <v>623</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
@@ -14571,7 +14556,7 @@
         <v>82</v>
       </c>
       <c r="T102" t="s" s="2">
-        <v>595</v>
+        <v>82</v>
       </c>
       <c r="U102" t="s" s="2">
         <v>82</v>
@@ -14607,31 +14592,31 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>596</v>
+        <v>618</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>102</v>
+        <v>624</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>456</v>
+        <v>625</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>597</v>
+        <v>82</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>82</v>
@@ -14639,10 +14624,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>598</v>
+        <v>626</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>598</v>
+        <v>626</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14665,18 +14650,16 @@
         <v>82</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>599</v>
+        <v>202</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>600</v>
+        <v>203</v>
       </c>
       <c r="N103" s="2"/>
-      <c r="O103" t="s" s="2">
-        <v>601</v>
-      </c>
+      <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>82</v>
       </c>
@@ -14700,11 +14683,13 @@
         <v>82</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="Y103" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z103" t="s" s="2">
-        <v>602</v>
+        <v>82</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>82</v>
@@ -14722,7 +14707,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>598</v>
+        <v>204</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14734,19 +14719,19 @@
         <v>82</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>603</v>
+        <v>205</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>604</v>
+        <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>605</v>
+        <v>82</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>82</v>
@@ -14754,21 +14739,21 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>606</v>
+        <v>627</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>606</v>
+        <v>627</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>82</v>
@@ -14780,20 +14765,18 @@
         <v>82</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>607</v>
+        <v>135</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>608</v>
+        <v>208</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>609</v>
+        <v>209</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>611</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>82</v>
       </c>
@@ -14841,31 +14824,31 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>606</v>
+        <v>211</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>612</v>
+        <v>205</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>613</v>
+        <v>82</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>82</v>
@@ -14873,14 +14856,14 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>614</v>
+        <v>628</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>614</v>
+        <v>628</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>82</v>
+        <v>629</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -14893,25 +14876,25 @@
         <v>82</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>615</v>
+        <v>135</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>616</v>
+        <v>630</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>617</v>
+        <v>631</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>618</v>
+        <v>182</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>619</v>
+        <v>183</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>82</v>
@@ -14960,7 +14943,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>614</v>
+        <v>632</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -14972,19 +14955,19 @@
         <v>82</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>620</v>
+        <v>133</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>621</v>
+        <v>82</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>82</v>
@@ -14992,10 +14975,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15018,19 +15001,17 @@
         <v>82</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>623</v>
+        <v>225</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>626</v>
-      </c>
+        <v>635</v>
+      </c>
+      <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -15055,13 +15036,11 @@
         <v>82</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="Y106" s="2"/>
       <c r="Z106" t="s" s="2">
-        <v>82</v>
+        <v>637</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>82</v>
@@ -15079,7 +15058,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15091,10 +15070,10 @@
         <v>82</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>628</v>
+        <v>102</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>205</v>
@@ -15103,7 +15082,7 @@
         <v>82</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>82</v>
+        <v>639</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>82</v>
@@ -15111,10 +15090,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15137,16 +15116,18 @@
         <v>82</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>201</v>
+        <v>390</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>202</v>
+        <v>641</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>203</v>
+        <v>642</v>
       </c>
       <c r="N107" s="2"/>
-      <c r="O107" s="2"/>
+      <c r="O107" t="s" s="2">
+        <v>643</v>
+      </c>
       <c r="P107" t="s" s="2">
         <v>82</v>
       </c>
@@ -15194,7 +15175,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>204</v>
+        <v>640</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15206,19 +15187,19 @@
         <v>82</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="AK107" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AL107" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AL107" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AM107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>82</v>
+        <v>644</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
@@ -15226,14 +15207,14 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>631</v>
+        <v>645</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>631</v>
+        <v>645</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -15252,18 +15233,20 @@
         <v>82</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>135</v>
+        <v>455</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>208</v>
+        <v>646</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>209</v>
+        <v>647</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O108" s="2"/>
+        <v>648</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="P108" t="s" s="2">
         <v>82</v>
       </c>
@@ -15311,7 +15294,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>211</v>
+        <v>645</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15323,19 +15306,19 @@
         <v>82</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK108" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AL108" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AL108" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AM108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>82</v>
+        <v>649</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>82</v>
@@ -15343,45 +15326,43 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>632</v>
+        <v>650</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>632</v>
+        <v>650</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>633</v>
+        <v>82</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>135</v>
+        <v>492</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>634</v>
+        <v>651</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
-        <v>183</v>
+        <v>653</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>82</v>
@@ -15430,31 +15411,31 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>636</v>
+        <v>650</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>133</v>
+        <v>497</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>82</v>
+        <v>654</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>82</v>
@@ -15462,10 +15443,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>637</v>
+        <v>655</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>637</v>
+        <v>655</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15476,7 +15457,7 @@
         <v>80</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>82</v>
@@ -15488,17 +15469,17 @@
         <v>82</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>638</v>
+        <v>464</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>639</v>
+        <v>656</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
-        <v>640</v>
+        <v>657</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -15525,9 +15506,11 @@
       <c r="X110" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="Y110" s="2"/>
+      <c r="Y110" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="Z110" t="s" s="2">
-        <v>641</v>
+        <v>469</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>82</v>
@@ -15545,13 +15528,13 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>637</v>
+        <v>655</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>82</v>
@@ -15560,7 +15543,7 @@
         <v>102</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>642</v>
+        <v>470</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>205</v>
@@ -15569,7 +15552,7 @@
         <v>82</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>643</v>
+        <v>658</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
@@ -15577,10 +15560,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>644</v>
+        <v>659</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>644</v>
+        <v>659</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15603,17 +15586,17 @@
         <v>82</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>646</v>
+        <v>661</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
-        <v>647</v>
+        <v>662</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>82</v>
@@ -15662,7 +15645,7 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>644</v>
+        <v>659</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -15671,13 +15654,13 @@
         <v>90</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>82</v>
+        <v>663</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>399</v>
+        <v>664</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>205</v>
@@ -15686,7 +15669,7 @@
         <v>82</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>648</v>
+        <v>665</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>82</v>
@@ -15694,10 +15677,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>649</v>
+        <v>666</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>649</v>
+        <v>666</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15708,7 +15691,7 @@
         <v>80</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>82</v>
@@ -15720,20 +15703,16 @@
         <v>82</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>459</v>
+        <v>329</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>650</v>
+        <v>667</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>463</v>
-      </c>
+        <v>668</v>
+      </c>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
         <v>82</v>
       </c>
@@ -15781,13 +15760,13 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>649</v>
+        <v>666</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>82</v>
@@ -15796,7 +15775,7 @@
         <v>102</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>464</v>
+        <v>669</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>205</v>
@@ -15805,7 +15784,7 @@
         <v>82</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>653</v>
+        <v>82</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>82</v>
@@ -15813,10 +15792,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>654</v>
+        <v>670</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>654</v>
+        <v>670</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15827,7 +15806,7 @@
         <v>80</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>82</v>
@@ -15839,17 +15818,19 @@
         <v>82</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>496</v>
+        <v>619</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>655</v>
+        <v>671</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="N113" s="2"/>
+        <v>672</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>673</v>
+      </c>
       <c r="O113" t="s" s="2">
-        <v>657</v>
+        <v>674</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
@@ -15898,13 +15879,13 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>654</v>
+        <v>670</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>82</v>
@@ -15913,16 +15894,16 @@
         <v>102</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>501</v>
+        <v>675</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>205</v>
+        <v>676</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>658</v>
+        <v>82</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>82</v>
@@ -15930,10 +15911,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>659</v>
+        <v>677</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>659</v>
+        <v>677</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15956,18 +15937,16 @@
         <v>82</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>468</v>
+        <v>202</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>660</v>
+        <v>203</v>
       </c>
       <c r="N114" s="2"/>
-      <c r="O114" t="s" s="2">
-        <v>661</v>
-      </c>
+      <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
         <v>82</v>
       </c>
@@ -15991,13 +15970,13 @@
         <v>82</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>218</v>
+        <v>82</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>472</v>
+        <v>82</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>473</v>
+        <v>82</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>82</v>
@@ -16015,7 +15994,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>659</v>
+        <v>204</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16027,19 +16006,19 @@
         <v>82</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>474</v>
+        <v>205</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>662</v>
+        <v>82</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>82</v>
@@ -16047,21 +16026,21 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>663</v>
+        <v>678</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>663</v>
+        <v>678</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>82</v>
@@ -16073,18 +16052,18 @@
         <v>82</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>337</v>
+        <v>135</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>664</v>
+        <v>208</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="N115" s="2"/>
-      <c r="O115" t="s" s="2">
-        <v>666</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
         <v>82</v>
       </c>
@@ -16132,31 +16111,31 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>663</v>
+        <v>211</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>667</v>
+        <v>82</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>668</v>
+        <v>205</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>669</v>
+        <v>82</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>82</v>
@@ -16164,42 +16143,46 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>82</v>
+        <v>629</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>329</v>
+        <v>135</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>671</v>
+        <v>630</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="N116" s="2"/>
-      <c r="O116" s="2"/>
+        <v>631</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O116" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
       </c>
@@ -16247,25 +16230,25 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>670</v>
+        <v>632</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI116" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>673</v>
+        <v>133</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>82</v>
@@ -16279,10 +16262,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16290,10 +16273,10 @@
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>82</v>
@@ -16305,19 +16288,19 @@
         <v>82</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>623</v>
+        <v>225</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16342,13 +16325,13 @@
         <v>82</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>82</v>
@@ -16366,13 +16349,13 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI117" t="s" s="2">
         <v>82</v>
@@ -16381,16 +16364,16 @@
         <v>102</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>82</v>
+        <v>687</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>82</v>
@@ -16398,10 +16381,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16424,16 +16407,20 @@
         <v>82</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>201</v>
+        <v>290</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>202</v>
+        <v>689</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N118" s="2"/>
-      <c r="O118" s="2"/>
+        <v>690</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="O118" t="s" s="2">
+        <v>692</v>
+      </c>
       <c r="P118" t="s" s="2">
         <v>82</v>
       </c>
@@ -16481,7 +16468,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>204</v>
+        <v>688</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16493,19 +16480,19 @@
         <v>82</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>205</v>
+        <v>693</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>82</v>
+        <v>694</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>82</v>
+        <v>695</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>82</v>
@@ -16513,14 +16500,14 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>682</v>
+        <v>696</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>682</v>
+        <v>696</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
-        <v>179</v>
+        <v>697</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
@@ -16539,16 +16526,16 @@
         <v>82</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>135</v>
+        <v>698</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>208</v>
+        <v>699</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>209</v>
+        <v>700</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>182</v>
+        <v>701</v>
       </c>
       <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
@@ -16598,7 +16585,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>211</v>
+        <v>696</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -16610,19 +16597,19 @@
         <v>82</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK119" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="AL119" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AL119" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AM119" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>82</v>
+        <v>703</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>82</v>
@@ -16630,45 +16617,45 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>683</v>
+        <v>704</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>683</v>
+        <v>704</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
-        <v>633</v>
+        <v>82</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I120" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J120" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>135</v>
+        <v>337</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>634</v>
+        <v>705</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>635</v>
+        <v>706</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>182</v>
+        <v>707</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>183</v>
+        <v>708</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>82</v>
@@ -16717,25 +16704,25 @@
         <v>82</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>636</v>
+        <v>704</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI120" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>133</v>
+        <v>664</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>82</v>
+        <v>709</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>82</v>
@@ -16749,10 +16736,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>684</v>
+        <v>710</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>684</v>
+        <v>710</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16760,34 +16747,34 @@
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I121" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>225</v>
+        <v>619</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>685</v>
+        <v>711</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>686</v>
+        <v>712</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>687</v>
+        <v>713</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>688</v>
+        <v>714</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>82</v>
@@ -16812,13 +16799,13 @@
         <v>82</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>82</v>
@@ -16836,13 +16823,13 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>684</v>
+        <v>710</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>82</v>
@@ -16851,16 +16838,16 @@
         <v>102</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>689</v>
+        <v>715</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>690</v>
+        <v>205</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>691</v>
+        <v>82</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>82</v>
@@ -16868,10 +16855,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>692</v>
+        <v>716</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>692</v>
+        <v>716</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16894,20 +16881,16 @@
         <v>82</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>290</v>
+        <v>201</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>693</v>
+        <v>202</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>694</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>696</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N122" s="2"/>
+      <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
         <v>82</v>
       </c>
@@ -16955,7 +16938,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>692</v>
+        <v>204</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -16967,19 +16950,19 @@
         <v>82</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>697</v>
+        <v>205</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>698</v>
+        <v>82</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>699</v>
+        <v>82</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>82</v>
@@ -16987,14 +16970,14 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>700</v>
+        <v>717</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>700</v>
+        <v>717</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>701</v>
+        <v>179</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
@@ -17013,16 +16996,16 @@
         <v>82</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>702</v>
+        <v>135</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>703</v>
+        <v>208</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>704</v>
+        <v>209</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>705</v>
+        <v>182</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
@@ -17072,7 +17055,7 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>700</v>
+        <v>211</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -17084,19 +17067,19 @@
         <v>82</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>706</v>
+        <v>205</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>707</v>
+        <v>82</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>82</v>
@@ -17104,45 +17087,45 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
-        <v>82</v>
+        <v>629</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J124" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>337</v>
+        <v>135</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>709</v>
+        <v>630</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>710</v>
+        <v>631</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>711</v>
+        <v>182</v>
       </c>
       <c r="O124" t="s" s="2">
-        <v>712</v>
+        <v>183</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>82</v>
@@ -17191,25 +17174,25 @@
         <v>82</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>708</v>
+        <v>632</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI124" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>668</v>
+        <v>133</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>713</v>
+        <v>82</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>82</v>
@@ -17223,10 +17206,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17234,35 +17217,33 @@
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H125" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J125" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>623</v>
+        <v>720</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>717</v>
-      </c>
-      <c r="O125" t="s" s="2">
-        <v>718</v>
-      </c>
+        <v>723</v>
+      </c>
+      <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
         <v>82</v>
       </c>
@@ -17310,13 +17291,13 @@
         <v>82</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>82</v>
@@ -17325,7 +17306,7 @@
         <v>102</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>719</v>
+        <v>192</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>205</v>
@@ -17334,7 +17315,7 @@
         <v>82</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>82</v>
+        <v>724</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>82</v>
@@ -17342,10 +17323,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17353,7 +17334,7 @@
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>90</v>
@@ -17365,16 +17346,16 @@
         <v>82</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>202</v>
+        <v>726</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>203</v>
+        <v>727</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -17401,13 +17382,13 @@
         <v>82</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>82</v>
+        <v>727</v>
       </c>
       <c r="Z126" t="s" s="2">
-        <v>82</v>
+        <v>728</v>
       </c>
       <c r="AA126" t="s" s="2">
         <v>82</v>
@@ -17425,10 +17406,10 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>204</v>
+        <v>725</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>90</v>
@@ -17437,14 +17418,14 @@
         <v>82</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="AK126" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="AL126" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AL126" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AM126" t="s" s="2">
         <v>82</v>
       </c>
@@ -17452,479 +17433,11 @@
         <v>82</v>
       </c>
       <c r="AO126" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="127" hidden="true">
-      <c r="A127" t="s" s="2">
-        <v>721</v>
-      </c>
-      <c r="B127" t="s" s="2">
-        <v>721</v>
-      </c>
-      <c r="C127" s="2"/>
-      <c r="D127" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="E127" s="2"/>
-      <c r="F127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G127" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K127" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L127" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O127" s="2"/>
-      <c r="P127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q127" s="2"/>
-      <c r="R127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF127" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AG127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH127" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ127" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK127" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AL127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO127" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="128" hidden="true">
-      <c r="A128" t="s" s="2">
-        <v>722</v>
-      </c>
-      <c r="B128" t="s" s="2">
-        <v>722</v>
-      </c>
-      <c r="C128" s="2"/>
-      <c r="D128" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="E128" s="2"/>
-      <c r="F128" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G128" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I128" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="J128" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K128" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O128" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="P128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q128" s="2"/>
-      <c r="R128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF128" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="AG128" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH128" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ128" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK128" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AL128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO128" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="129" hidden="true">
-      <c r="A129" t="s" s="2">
-        <v>723</v>
-      </c>
-      <c r="B129" t="s" s="2">
-        <v>723</v>
-      </c>
-      <c r="C129" s="2"/>
-      <c r="D129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E129" s="2"/>
-      <c r="F129" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G129" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J129" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K129" t="s" s="2">
-        <v>724</v>
-      </c>
-      <c r="L129" t="s" s="2">
-        <v>725</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>726</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>727</v>
-      </c>
-      <c r="O129" s="2"/>
-      <c r="P129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q129" s="2"/>
-      <c r="R129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF129" t="s" s="2">
-        <v>723</v>
-      </c>
-      <c r="AG129" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH129" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ129" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK129" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AL129" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AM129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN129" t="s" s="2">
-        <v>728</v>
-      </c>
-      <c r="AO129" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="130" hidden="true">
-      <c r="A130" t="s" s="2">
-        <v>729</v>
-      </c>
-      <c r="B130" t="s" s="2">
-        <v>729</v>
-      </c>
-      <c r="C130" s="2"/>
-      <c r="D130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E130" s="2"/>
-      <c r="F130" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G130" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J130" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K130" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="L130" t="s" s="2">
-        <v>730</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>731</v>
-      </c>
-      <c r="N130" s="2"/>
-      <c r="O130" s="2"/>
-      <c r="P130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q130" s="2"/>
-      <c r="R130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X130" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="Y130" t="s" s="2">
-        <v>731</v>
-      </c>
-      <c r="Z130" t="s" s="2">
-        <v>732</v>
-      </c>
-      <c r="AA130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF130" t="s" s="2">
-        <v>729</v>
-      </c>
-      <c r="AG130" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH130" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ130" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK130" t="s" s="2">
-        <v>733</v>
-      </c>
-      <c r="AL130" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AM130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO130" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO130">
+  <autoFilter ref="A1:AO126">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -17934,7 +17447,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI129">
+  <conditionalFormatting sqref="A2:AI125">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-rs-patient.xlsx
+++ b/StructureDefinition-rs-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-16T14:11:53+00:00</t>
+    <t>2025-11-16T14:40:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
